--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -48,8 +48,7 @@
     <t xml:space="preserve">Spectral resolution [nm]</t>
   </si>
   <si>
-    <t xml:space="preserve">Bandwidth-to-resolution
- ratio</t>
+    <t xml:space="preserve">Bandwidth-to-resolution ratio</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic range</t>
@@ -1715,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:P268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O48" activeCellId="0" sqref="A1:O48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5844,10 +5843,10 @@
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:O48"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
@@ -8510,10 +8509,10 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="1" sqref="A1:O48 B63"/>
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.14"/>

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="spectrometers" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="274">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t xml:space="preserve">J. Brouckaert, W. Bogaerts, S. Selvaraja, P. Dumon, R. Baets and D. Van Thourhout, "Planar Concave Grating Demultiplexer With High Reflective Bragg Reflector Facets," in IEEE Photonics Technology Letters, vol. 20, no. 4, pp. 309-311, Feb.15, 2008, doi: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redding, B., Liew, S., Sarma, R. et al. Compact spectrometer based on a disordered photonic chip. Nature Photon 7, 746–751 (2013). https://doi.org/10.1038/nphoton.2013.190</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -969,9 +972,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1206,7 +1211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1291,7 +1296,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1451,8 +1460,8 @@
   </sheetPr>
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O55" activeCellId="0" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3295,24 +3304,46 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15" t="str">
+      <c r="A49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D49" s="14" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="15" t="n">
         <f aca="false">IF(AND(E49&lt;&gt;0,G49&lt;&gt;0),E49/G49,"")</f>
-        <v/>
+        <v>33.3333333333333</v>
       </c>
       <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="J49" s="21" t="n">
+        <v>2.5E-005</v>
+      </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="19"/>
+      <c r="M49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14"/>
@@ -4274,1039 +4305,1039 @@
       <c r="O95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="21" t="str">
+      <c r="E96" s="22" t="str">
         <f aca="false">IF(AND(C96&lt;&gt;0,D96&lt;&gt;0),D96-C96,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="21" t="str">
+      <c r="E97" s="22" t="str">
         <f aca="false">IF(AND(C97&lt;&gt;0,D97&lt;&gt;0),D97-C97,"")</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="21" t="str">
+      <c r="E98" s="22" t="str">
         <f aca="false">IF(AND(C98&lt;&gt;0,D98&lt;&gt;0),D98-C98,"")</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="21" t="str">
+      <c r="E99" s="22" t="str">
         <f aca="false">IF(AND(C99&lt;&gt;0,D99&lt;&gt;0),D99-C99,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="21" t="str">
+      <c r="E100" s="22" t="str">
         <f aca="false">IF(AND(C100&lt;&gt;0,D100&lt;&gt;0),D100-C100,"")</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="21" t="str">
+      <c r="E101" s="22" t="str">
         <f aca="false">IF(AND(C101&lt;&gt;0,D101&lt;&gt;0),D101-C101,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="21" t="str">
+      <c r="E102" s="22" t="str">
         <f aca="false">IF(AND(C102&lt;&gt;0,D102&lt;&gt;0),D102-C102,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="21" t="str">
+      <c r="E103" s="22" t="str">
         <f aca="false">IF(AND(C103&lt;&gt;0,D103&lt;&gt;0),D103-C103,"")</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="21" t="str">
+      <c r="E104" s="22" t="str">
         <f aca="false">IF(AND(C104&lt;&gt;0,D104&lt;&gt;0),D104-C104,"")</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="21" t="str">
+      <c r="E105" s="22" t="str">
         <f aca="false">IF(AND(C105&lt;&gt;0,D105&lt;&gt;0),D105-C105,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="21" t="str">
+      <c r="E106" s="22" t="str">
         <f aca="false">IF(AND(C106&lt;&gt;0,D106&lt;&gt;0),D106-C106,"")</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="21" t="str">
+      <c r="E107" s="22" t="str">
         <f aca="false">IF(AND(C107&lt;&gt;0,D107&lt;&gt;0),D107-C107,"")</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="21" t="str">
+      <c r="E108" s="22" t="str">
         <f aca="false">IF(AND(C108&lt;&gt;0,D108&lt;&gt;0),D108-C108,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="21" t="str">
+      <c r="E109" s="22" t="str">
         <f aca="false">IF(AND(C109&lt;&gt;0,D109&lt;&gt;0),D109-C109,"")</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="21" t="str">
+      <c r="E110" s="22" t="str">
         <f aca="false">IF(AND(C110&lt;&gt;0,D110&lt;&gt;0),D110-C110,"")</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="21" t="str">
+      <c r="E111" s="22" t="str">
         <f aca="false">IF(AND(C111&lt;&gt;0,D111&lt;&gt;0),D111-C111,"")</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="21" t="str">
+      <c r="E112" s="22" t="str">
         <f aca="false">IF(AND(C112&lt;&gt;0,D112&lt;&gt;0),D112-C112,"")</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="21" t="str">
+      <c r="E113" s="22" t="str">
         <f aca="false">IF(AND(C113&lt;&gt;0,D113&lt;&gt;0),D113-C113,"")</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="21" t="str">
+      <c r="E114" s="22" t="str">
         <f aca="false">IF(AND(C114&lt;&gt;0,D114&lt;&gt;0),D114-C114,"")</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="21" t="str">
+      <c r="E115" s="22" t="str">
         <f aca="false">IF(AND(C115&lt;&gt;0,D115&lt;&gt;0),D115-C115,"")</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="21" t="str">
+      <c r="E116" s="22" t="str">
         <f aca="false">IF(AND(C116&lt;&gt;0,D116&lt;&gt;0),D116-C116,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="21" t="str">
+      <c r="E117" s="22" t="str">
         <f aca="false">IF(AND(C117&lt;&gt;0,D117&lt;&gt;0),D117-C117,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="21" t="str">
+      <c r="E118" s="22" t="str">
         <f aca="false">IF(AND(C118&lt;&gt;0,D118&lt;&gt;0),D118-C118,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="21" t="str">
+      <c r="E119" s="22" t="str">
         <f aca="false">IF(AND(C119&lt;&gt;0,D119&lt;&gt;0),D119-C119,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="21" t="str">
+      <c r="E120" s="22" t="str">
         <f aca="false">IF(AND(C120&lt;&gt;0,D120&lt;&gt;0),D120-C120,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="21" t="str">
+      <c r="E121" s="22" t="str">
         <f aca="false">IF(AND(C121&lt;&gt;0,D121&lt;&gt;0),D121-C121,"")</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="21" t="str">
+      <c r="E122" s="22" t="str">
         <f aca="false">IF(AND(C122&lt;&gt;0,D122&lt;&gt;0),D122-C122,"")</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="21" t="str">
+      <c r="E123" s="22" t="str">
         <f aca="false">IF(AND(C123&lt;&gt;0,D123&lt;&gt;0),D123-C123,"")</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="21" t="str">
+      <c r="E124" s="22" t="str">
         <f aca="false">IF(AND(C124&lt;&gt;0,D124&lt;&gt;0),D124-C124,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="21" t="str">
+      <c r="E125" s="22" t="str">
         <f aca="false">IF(AND(C125&lt;&gt;0,D125&lt;&gt;0),D125-C125,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="21" t="str">
+      <c r="E126" s="22" t="str">
         <f aca="false">IF(AND(C126&lt;&gt;0,D126&lt;&gt;0),D126-C126,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="21" t="str">
+      <c r="E127" s="22" t="str">
         <f aca="false">IF(AND(C127&lt;&gt;0,D127&lt;&gt;0),D127-C127,"")</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="21" t="str">
+      <c r="E128" s="22" t="str">
         <f aca="false">IF(AND(C128&lt;&gt;0,D128&lt;&gt;0),D128-C128,"")</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="21" t="str">
+      <c r="E129" s="22" t="str">
         <f aca="false">IF(AND(C129&lt;&gt;0,D129&lt;&gt;0),D129-C129,"")</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="21" t="str">
+      <c r="E130" s="22" t="str">
         <f aca="false">IF(AND(C130&lt;&gt;0,D130&lt;&gt;0),D130-C130,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="21" t="str">
+      <c r="E131" s="22" t="str">
         <f aca="false">IF(AND(C131&lt;&gt;0,D131&lt;&gt;0),D131-C131,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="21" t="str">
+      <c r="E132" s="22" t="str">
         <f aca="false">IF(AND(C132&lt;&gt;0,D132&lt;&gt;0),D132-C132,"")</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="21" t="str">
+      <c r="E133" s="22" t="str">
         <f aca="false">IF(AND(C133&lt;&gt;0,D133&lt;&gt;0),D133-C133,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="21" t="str">
+      <c r="E134" s="22" t="str">
         <f aca="false">IF(AND(C134&lt;&gt;0,D134&lt;&gt;0),D134-C134,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="21" t="str">
+      <c r="E135" s="22" t="str">
         <f aca="false">IF(AND(C135&lt;&gt;0,D135&lt;&gt;0),D135-C135,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="21" t="str">
+      <c r="E136" s="22" t="str">
         <f aca="false">IF(AND(C136&lt;&gt;0,D136&lt;&gt;0),D136-C136,"")</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="21" t="str">
+      <c r="E137" s="22" t="str">
         <f aca="false">IF(AND(C137&lt;&gt;0,D137&lt;&gt;0),D137-C137,"")</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="21" t="str">
+      <c r="E138" s="22" t="str">
         <f aca="false">IF(AND(C138&lt;&gt;0,D138&lt;&gt;0),D138-C138,"")</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="21" t="str">
+      <c r="E139" s="22" t="str">
         <f aca="false">IF(AND(C139&lt;&gt;0,D139&lt;&gt;0),D139-C139,"")</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="21" t="str">
+      <c r="E140" s="22" t="str">
         <f aca="false">IF(AND(C140&lt;&gt;0,D140&lt;&gt;0),D140-C140,"")</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="21" t="str">
+      <c r="E141" s="22" t="str">
         <f aca="false">IF(AND(C141&lt;&gt;0,D141&lt;&gt;0),D141-C141,"")</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="21" t="str">
+      <c r="E142" s="22" t="str">
         <f aca="false">IF(AND(C142&lt;&gt;0,D142&lt;&gt;0),D142-C142,"")</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="21" t="str">
+      <c r="E143" s="22" t="str">
         <f aca="false">IF(AND(C143&lt;&gt;0,D143&lt;&gt;0),D143-C143,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="21" t="str">
+      <c r="E144" s="22" t="str">
         <f aca="false">IF(AND(C144&lt;&gt;0,D144&lt;&gt;0),D144-C144,"")</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="21" t="str">
+      <c r="E145" s="22" t="str">
         <f aca="false">IF(AND(C145&lt;&gt;0,D145&lt;&gt;0),D145-C145,"")</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="21" t="str">
+      <c r="E146" s="22" t="str">
         <f aca="false">IF(AND(C146&lt;&gt;0,D146&lt;&gt;0),D146-C146,"")</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="21" t="str">
+      <c r="E147" s="22" t="str">
         <f aca="false">IF(AND(C147&lt;&gt;0,D147&lt;&gt;0),D147-C147,"")</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="21" t="str">
+      <c r="E148" s="22" t="str">
         <f aca="false">IF(AND(C148&lt;&gt;0,D148&lt;&gt;0),D148-C148,"")</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="21" t="str">
+      <c r="E149" s="22" t="str">
         <f aca="false">IF(AND(C149&lt;&gt;0,D149&lt;&gt;0),D149-C149,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="21" t="str">
+      <c r="E150" s="22" t="str">
         <f aca="false">IF(AND(C150&lt;&gt;0,D150&lt;&gt;0),D150-C150,"")</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="21" t="str">
+      <c r="E151" s="22" t="str">
         <f aca="false">IF(AND(C151&lt;&gt;0,D151&lt;&gt;0),D151-C151,"")</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="21" t="str">
+      <c r="E152" s="22" t="str">
         <f aca="false">IF(AND(C152&lt;&gt;0,D152&lt;&gt;0),D152-C152,"")</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="21" t="str">
+      <c r="E153" s="22" t="str">
         <f aca="false">IF(AND(C153&lt;&gt;0,D153&lt;&gt;0),D153-C153,"")</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="21" t="str">
+      <c r="E154" s="22" t="str">
         <f aca="false">IF(AND(C154&lt;&gt;0,D154&lt;&gt;0),D154-C154,"")</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="21" t="str">
+      <c r="E155" s="22" t="str">
         <f aca="false">IF(AND(C155&lt;&gt;0,D155&lt;&gt;0),D155-C155,"")</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="21" t="str">
+      <c r="E156" s="22" t="str">
         <f aca="false">IF(AND(C156&lt;&gt;0,D156&lt;&gt;0),D156-C156,"")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="21" t="str">
+      <c r="E157" s="22" t="str">
         <f aca="false">IF(AND(C157&lt;&gt;0,D157&lt;&gt;0),D157-C157,"")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="21" t="str">
+      <c r="E158" s="22" t="str">
         <f aca="false">IF(AND(C158&lt;&gt;0,D158&lt;&gt;0),D158-C158,"")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="21" t="str">
+      <c r="E159" s="22" t="str">
         <f aca="false">IF(AND(C159&lt;&gt;0,D159&lt;&gt;0),D159-C159,"")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="21" t="str">
+      <c r="E160" s="22" t="str">
         <f aca="false">IF(AND(C160&lt;&gt;0,D160&lt;&gt;0),D160-C160,"")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="21" t="str">
+      <c r="E161" s="22" t="str">
         <f aca="false">IF(AND(C161&lt;&gt;0,D161&lt;&gt;0),D161-C161,"")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="21" t="str">
+      <c r="E162" s="22" t="str">
         <f aca="false">IF(AND(C162&lt;&gt;0,D162&lt;&gt;0),D162-C162,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="21" t="str">
+      <c r="E163" s="22" t="str">
         <f aca="false">IF(AND(C163&lt;&gt;0,D163&lt;&gt;0),D163-C163,"")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="21" t="str">
+      <c r="E164" s="22" t="str">
         <f aca="false">IF(AND(C164&lt;&gt;0,D164&lt;&gt;0),D164-C164,"")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="21" t="str">
+      <c r="E165" s="22" t="str">
         <f aca="false">IF(AND(C165&lt;&gt;0,D165&lt;&gt;0),D165-C165,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="21" t="str">
+      <c r="E166" s="22" t="str">
         <f aca="false">IF(AND(C166&lt;&gt;0,D166&lt;&gt;0),D166-C166,"")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="21" t="str">
+      <c r="E167" s="22" t="str">
         <f aca="false">IF(AND(C167&lt;&gt;0,D167&lt;&gt;0),D167-C167,"")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="21" t="str">
+      <c r="E168" s="22" t="str">
         <f aca="false">IF(AND(C168&lt;&gt;0,D168&lt;&gt;0),D168-C168,"")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="21" t="str">
+      <c r="E169" s="22" t="str">
         <f aca="false">IF(AND(C169&lt;&gt;0,D169&lt;&gt;0),D169-C169,"")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="21" t="str">
+      <c r="E170" s="22" t="str">
         <f aca="false">IF(AND(C170&lt;&gt;0,D170&lt;&gt;0),D170-C170,"")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="21" t="str">
+      <c r="E171" s="22" t="str">
         <f aca="false">IF(AND(C171&lt;&gt;0,D171&lt;&gt;0),D171-C171,"")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="21" t="str">
+      <c r="E172" s="22" t="str">
         <f aca="false">IF(AND(C172&lt;&gt;0,D172&lt;&gt;0),D172-C172,"")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="21" t="str">
+      <c r="E173" s="22" t="str">
         <f aca="false">IF(AND(C173&lt;&gt;0,D173&lt;&gt;0),D173-C173,"")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="21" t="str">
+      <c r="E174" s="22" t="str">
         <f aca="false">IF(AND(C174&lt;&gt;0,D174&lt;&gt;0),D174-C174,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="21" t="str">
+      <c r="E175" s="22" t="str">
         <f aca="false">IF(AND(C175&lt;&gt;0,D175&lt;&gt;0),D175-C175,"")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="21" t="str">
+      <c r="E176" s="22" t="str">
         <f aca="false">IF(AND(C176&lt;&gt;0,D176&lt;&gt;0),D176-C176,"")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="21" t="str">
+      <c r="E177" s="22" t="str">
         <f aca="false">IF(AND(C177&lt;&gt;0,D177&lt;&gt;0),D177-C177,"")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="21" t="str">
+      <c r="E178" s="22" t="str">
         <f aca="false">IF(AND(C178&lt;&gt;0,D178&lt;&gt;0),D178-C178,"")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="21" t="str">
+      <c r="E179" s="22" t="str">
         <f aca="false">IF(AND(C179&lt;&gt;0,D179&lt;&gt;0),D179-C179,"")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="21" t="str">
+      <c r="E180" s="22" t="str">
         <f aca="false">IF(AND(C180&lt;&gt;0,D180&lt;&gt;0),D180-C180,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="21" t="str">
+      <c r="E181" s="22" t="str">
         <f aca="false">IF(AND(C181&lt;&gt;0,D181&lt;&gt;0),D181-C181,"")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="21" t="str">
+      <c r="E182" s="22" t="str">
         <f aca="false">IF(AND(C182&lt;&gt;0,D182&lt;&gt;0),D182-C182,"")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="21" t="str">
+      <c r="E183" s="22" t="str">
         <f aca="false">IF(AND(C183&lt;&gt;0,D183&lt;&gt;0),D183-C183,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="21" t="str">
+      <c r="E184" s="22" t="str">
         <f aca="false">IF(AND(C184&lt;&gt;0,D184&lt;&gt;0),D184-C184,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="21" t="str">
+      <c r="E185" s="22" t="str">
         <f aca="false">IF(AND(C185&lt;&gt;0,D185&lt;&gt;0),D185-C185,"")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="21" t="str">
+      <c r="E186" s="22" t="str">
         <f aca="false">IF(AND(C186&lt;&gt;0,D186&lt;&gt;0),D186-C186,"")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="21" t="str">
+      <c r="E187" s="22" t="str">
         <f aca="false">IF(AND(C187&lt;&gt;0,D187&lt;&gt;0),D187-C187,"")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="21" t="str">
+      <c r="E188" s="22" t="str">
         <f aca="false">IF(AND(C188&lt;&gt;0,D188&lt;&gt;0),D188-C188,"")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="21" t="str">
+      <c r="E189" s="22" t="str">
         <f aca="false">IF(AND(C189&lt;&gt;0,D189&lt;&gt;0),D189-C189,"")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="21" t="str">
+      <c r="E190" s="22" t="str">
         <f aca="false">IF(AND(C190&lt;&gt;0,D190&lt;&gt;0),D190-C190,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="21" t="str">
+      <c r="E191" s="22" t="str">
         <f aca="false">IF(AND(C191&lt;&gt;0,D191&lt;&gt;0),D191-C191,"")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="21" t="str">
+      <c r="E192" s="22" t="str">
         <f aca="false">IF(AND(C192&lt;&gt;0,D192&lt;&gt;0),D192-C192,"")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="21" t="str">
+      <c r="E193" s="22" t="str">
         <f aca="false">IF(AND(C193&lt;&gt;0,D193&lt;&gt;0),D193-C193,"")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="21" t="str">
+      <c r="E194" s="22" t="str">
         <f aca="false">IF(AND(C194&lt;&gt;0,D194&lt;&gt;0),D194-C194,"")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="21" t="str">
+      <c r="E195" s="22" t="str">
         <f aca="false">IF(AND(C195&lt;&gt;0,D195&lt;&gt;0),D195-C195,"")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="21" t="str">
+      <c r="E196" s="22" t="str">
         <f aca="false">IF(AND(C196&lt;&gt;0,D196&lt;&gt;0),D196-C196,"")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="21" t="str">
+      <c r="E197" s="22" t="str">
         <f aca="false">IF(AND(C197&lt;&gt;0,D197&lt;&gt;0),D197-C197,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="21" t="str">
+      <c r="E198" s="22" t="str">
         <f aca="false">IF(AND(C198&lt;&gt;0,D198&lt;&gt;0),D198-C198,"")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="21" t="str">
+      <c r="E199" s="22" t="str">
         <f aca="false">IF(AND(C199&lt;&gt;0,D199&lt;&gt;0),D199-C199,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="21" t="str">
+      <c r="E200" s="22" t="str">
         <f aca="false">IF(AND(C200&lt;&gt;0,D200&lt;&gt;0),D200-C200,"")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="21" t="str">
+      <c r="E201" s="22" t="str">
         <f aca="false">IF(AND(C201&lt;&gt;0,D201&lt;&gt;0),D201-C201,"")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="21" t="str">
+      <c r="E202" s="22" t="str">
         <f aca="false">IF(AND(C202&lt;&gt;0,D202&lt;&gt;0),D202-C202,"")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="21" t="str">
+      <c r="E203" s="22" t="str">
         <f aca="false">IF(AND(C203&lt;&gt;0,D203&lt;&gt;0),D203-C203,"")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="21" t="str">
+      <c r="E204" s="22" t="str">
         <f aca="false">IF(AND(C204&lt;&gt;0,D204&lt;&gt;0),D204-C204,"")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="21" t="str">
+      <c r="E205" s="22" t="str">
         <f aca="false">IF(AND(C205&lt;&gt;0,D205&lt;&gt;0),D205-C205,"")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="21" t="str">
+      <c r="E206" s="22" t="str">
         <f aca="false">IF(AND(C206&lt;&gt;0,D206&lt;&gt;0),D206-C206,"")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="21" t="str">
+      <c r="E207" s="22" t="str">
         <f aca="false">IF(AND(C207&lt;&gt;0,D207&lt;&gt;0),D207-C207,"")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="21" t="str">
+      <c r="E208" s="22" t="str">
         <f aca="false">IF(AND(C208&lt;&gt;0,D208&lt;&gt;0),D208-C208,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="21" t="str">
+      <c r="E209" s="22" t="str">
         <f aca="false">IF(AND(C209&lt;&gt;0,D209&lt;&gt;0),D209-C209,"")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="21" t="str">
+      <c r="E210" s="22" t="str">
         <f aca="false">IF(AND(C210&lt;&gt;0,D210&lt;&gt;0),D210-C210,"")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="21" t="str">
+      <c r="E211" s="22" t="str">
         <f aca="false">IF(AND(C211&lt;&gt;0,D211&lt;&gt;0),D211-C211,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="21" t="str">
+      <c r="E212" s="22" t="str">
         <f aca="false">IF(AND(C212&lt;&gt;0,D212&lt;&gt;0),D212-C212,"")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="21" t="str">
+      <c r="E213" s="22" t="str">
         <f aca="false">IF(AND(C213&lt;&gt;0,D213&lt;&gt;0),D213-C213,"")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="21" t="str">
+      <c r="E214" s="22" t="str">
         <f aca="false">IF(AND(C214&lt;&gt;0,D214&lt;&gt;0),D214-C214,"")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="21" t="str">
+      <c r="E215" s="22" t="str">
         <f aca="false">IF(AND(C215&lt;&gt;0,D215&lt;&gt;0),D215-C215,"")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="21" t="str">
+      <c r="E216" s="22" t="str">
         <f aca="false">IF(AND(C216&lt;&gt;0,D216&lt;&gt;0),D216-C216,"")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="21" t="str">
+      <c r="E217" s="22" t="str">
         <f aca="false">IF(AND(C217&lt;&gt;0,D217&lt;&gt;0),D217-C217,"")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="21" t="str">
+      <c r="E218" s="22" t="str">
         <f aca="false">IF(AND(C218&lt;&gt;0,D218&lt;&gt;0),D218-C218,"")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="21" t="str">
+      <c r="E219" s="22" t="str">
         <f aca="false">IF(AND(C219&lt;&gt;0,D219&lt;&gt;0),D219-C219,"")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="21" t="str">
+      <c r="E220" s="22" t="str">
         <f aca="false">IF(AND(C220&lt;&gt;0,D220&lt;&gt;0),D220-C220,"")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="21" t="str">
+      <c r="E221" s="22" t="str">
         <f aca="false">IF(AND(C221&lt;&gt;0,D221&lt;&gt;0),D221-C221,"")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="21" t="str">
+      <c r="E222" s="22" t="str">
         <f aca="false">IF(AND(C222&lt;&gt;0,D222&lt;&gt;0),D222-C222,"")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="21" t="str">
+      <c r="E223" s="22" t="str">
         <f aca="false">IF(AND(C223&lt;&gt;0,D223&lt;&gt;0),D223-C223,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="21" t="str">
+      <c r="E224" s="22" t="str">
         <f aca="false">IF(AND(C224&lt;&gt;0,D224&lt;&gt;0),D224-C224,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="21" t="str">
+      <c r="E225" s="22" t="str">
         <f aca="false">IF(AND(C225&lt;&gt;0,D225&lt;&gt;0),D225-C225,"")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="21" t="str">
+      <c r="E226" s="22" t="str">
         <f aca="false">IF(AND(C226&lt;&gt;0,D226&lt;&gt;0),D226-C226,"")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="21" t="str">
+      <c r="E227" s="22" t="str">
         <f aca="false">IF(AND(C227&lt;&gt;0,D227&lt;&gt;0),D227-C227,"")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="21" t="str">
+      <c r="E228" s="22" t="str">
         <f aca="false">IF(AND(C228&lt;&gt;0,D228&lt;&gt;0),D228-C228,"")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="21" t="str">
+      <c r="E229" s="22" t="str">
         <f aca="false">IF(AND(C229&lt;&gt;0,D229&lt;&gt;0),D229-C229,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="21" t="str">
+      <c r="E230" s="22" t="str">
         <f aca="false">IF(AND(C230&lt;&gt;0,D230&lt;&gt;0),D230-C230,"")</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="21" t="str">
+      <c r="E231" s="22" t="str">
         <f aca="false">IF(AND(C231&lt;&gt;0,D231&lt;&gt;0),D231-C231,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="21" t="str">
+      <c r="E232" s="22" t="str">
         <f aca="false">IF(AND(C232&lt;&gt;0,D232&lt;&gt;0),D232-C232,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="21" t="str">
+      <c r="E233" s="22" t="str">
         <f aca="false">IF(AND(C233&lt;&gt;0,D233&lt;&gt;0),D233-C233,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="21" t="str">
+      <c r="E234" s="22" t="str">
         <f aca="false">IF(AND(C234&lt;&gt;0,D234&lt;&gt;0),D234-C234,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="21" t="str">
+      <c r="E235" s="22" t="str">
         <f aca="false">IF(AND(C235&lt;&gt;0,D235&lt;&gt;0),D235-C235,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="21" t="str">
+      <c r="E236" s="22" t="str">
         <f aca="false">IF(AND(C236&lt;&gt;0,D236&lt;&gt;0),D236-C236,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="21" t="str">
+      <c r="E237" s="22" t="str">
         <f aca="false">IF(AND(C237&lt;&gt;0,D237&lt;&gt;0),D237-C237,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="21" t="str">
+      <c r="E238" s="22" t="str">
         <f aca="false">IF(AND(C238&lt;&gt;0,D238&lt;&gt;0),D238-C238,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="21" t="str">
+      <c r="E239" s="22" t="str">
         <f aca="false">IF(AND(C239&lt;&gt;0,D239&lt;&gt;0),D239-C239,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="21" t="str">
+      <c r="E240" s="22" t="str">
         <f aca="false">IF(AND(C240&lt;&gt;0,D240&lt;&gt;0),D240-C240,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="21" t="str">
+      <c r="E241" s="22" t="str">
         <f aca="false">IF(AND(C241&lt;&gt;0,D241&lt;&gt;0),D241-C241,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="21" t="str">
+      <c r="E242" s="22" t="str">
         <f aca="false">IF(AND(C242&lt;&gt;0,D242&lt;&gt;0),D242-C242,"")</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="21" t="str">
+      <c r="E243" s="22" t="str">
         <f aca="false">IF(AND(C243&lt;&gt;0,D243&lt;&gt;0),D243-C243,"")</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="21" t="str">
+      <c r="E244" s="22" t="str">
         <f aca="false">IF(AND(C244&lt;&gt;0,D244&lt;&gt;0),D244-C244,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="21" t="str">
+      <c r="E245" s="22" t="str">
         <f aca="false">IF(AND(C245&lt;&gt;0,D245&lt;&gt;0),D245-C245,"")</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="21" t="str">
+      <c r="E246" s="22" t="str">
         <f aca="false">IF(AND(C246&lt;&gt;0,D246&lt;&gt;0),D246-C246,"")</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="21" t="str">
+      <c r="E247" s="22" t="str">
         <f aca="false">IF(AND(C247&lt;&gt;0,D247&lt;&gt;0),D247-C247,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="21" t="str">
+      <c r="E248" s="22" t="str">
         <f aca="false">IF(AND(C248&lt;&gt;0,D248&lt;&gt;0),D248-C248,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="21" t="str">
+      <c r="E249" s="22" t="str">
         <f aca="false">IF(AND(C249&lt;&gt;0,D249&lt;&gt;0),D249-C249,"")</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="21" t="str">
+      <c r="E250" s="22" t="str">
         <f aca="false">IF(AND(C250&lt;&gt;0,D250&lt;&gt;0),D250-C250,"")</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="21" t="str">
+      <c r="E251" s="22" t="str">
         <f aca="false">IF(AND(C251&lt;&gt;0,D251&lt;&gt;0),D251-C251,"")</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="21" t="str">
+      <c r="E252" s="22" t="str">
         <f aca="false">IF(AND(C252&lt;&gt;0,D252&lt;&gt;0),D252-C252,"")</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="21" t="str">
+      <c r="E253" s="22" t="str">
         <f aca="false">IF(AND(C253&lt;&gt;0,D253&lt;&gt;0),D253-C253,"")</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="21" t="str">
+      <c r="E254" s="22" t="str">
         <f aca="false">IF(AND(C254&lt;&gt;0,D254&lt;&gt;0),D254-C254,"")</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="21" t="str">
+      <c r="E255" s="22" t="str">
         <f aca="false">IF(AND(C255&lt;&gt;0,D255&lt;&gt;0),D255-C255,"")</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="21" t="str">
+      <c r="E256" s="22" t="str">
         <f aca="false">IF(AND(C256&lt;&gt;0,D256&lt;&gt;0),D256-C256,"")</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="21" t="str">
+      <c r="E257" s="22" t="str">
         <f aca="false">IF(AND(C257&lt;&gt;0,D257&lt;&gt;0),D257-C257,"")</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="21" t="str">
+      <c r="E258" s="22" t="str">
         <f aca="false">IF(AND(C258&lt;&gt;0,D258&lt;&gt;0),D258-C258,"")</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="21" t="str">
+      <c r="E259" s="22" t="str">
         <f aca="false">IF(AND(C259&lt;&gt;0,D259&lt;&gt;0),D259-C259,"")</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="21" t="str">
+      <c r="E260" s="22" t="str">
         <f aca="false">IF(AND(C260&lt;&gt;0,D260&lt;&gt;0),D260-C260,"")</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="21" t="str">
+      <c r="E261" s="22" t="str">
         <f aca="false">IF(AND(C261&lt;&gt;0,D261&lt;&gt;0),D261-C261,"")</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="21" t="str">
+      <c r="E262" s="22" t="str">
         <f aca="false">IF(AND(C262&lt;&gt;0,D262&lt;&gt;0),D262-C262,"")</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="21" t="str">
+      <c r="E263" s="22" t="str">
         <f aca="false">IF(AND(C263&lt;&gt;0,D263&lt;&gt;0),D263-C263,"")</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="21" t="str">
+      <c r="E264" s="22" t="str">
         <f aca="false">IF(AND(C264&lt;&gt;0,D264&lt;&gt;0),D264-C264,"")</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="21" t="str">
+      <c r="E265" s="22" t="str">
         <f aca="false">IF(AND(C265&lt;&gt;0,D265&lt;&gt;0),D265-C265,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="21" t="str">
+      <c r="E266" s="22" t="str">
         <f aca="false">IF(AND(C266&lt;&gt;0,D266&lt;&gt;0),D266-C266,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="21" t="str">
+      <c r="E267" s="22" t="str">
         <f aca="false">IF(AND(C267&lt;&gt;0,D267&lt;&gt;0),D267-C267,"")</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="21" t="str">
+      <c r="E268" s="22" t="str">
         <f aca="false">IF(AND(C268&lt;&gt;0,D268&lt;&gt;0),D268-C268,"")</f>
         <v/>
       </c>
@@ -5372,6 +5403,7 @@
     <hyperlink ref="O46" r:id="rId44" display="M. Muneeb, X. Chen, P. Verheyen, G. Lepage, S. Pathak, E. Ryckeboer, A. Malik, B. Kuyken, M. Nedeljkovic, J. Van Campenhout, G. Z. Mashanovich, and G. Roelkens, &quot;Demonstration of Silicon-on-insulator mid-infrared spectrometers operating at 3.8μm,&quot; Opt. Ex"/>
     <hyperlink ref="O47" r:id="rId45" display="M. Muneeb, X. Chen, P. Verheyen, G. Lepage, S. Pathak, E. Ryckeboer, A. Malik, B. Kuyken, M. Nedeljkovic, J. Van Campenhout, G. Z. Mashanovich, and G. Roelkens, &quot;Demonstration of Silicon-on-insulator mid-infrared spectrometers operating at 3.8μm,&quot; Opt. Ex"/>
     <hyperlink ref="O48" r:id="rId46" display="J. Brouckaert, W. Bogaerts, S. Selvaraja, P. Dumon, R. Baets and D. Van Thourhout, &quot;Planar Concave Grating Demultiplexer With High Reflective Bragg Reflector Facets,&quot; in IEEE Photonics Technology Letters, vol. 20, no. 4, pp. 309-311, Feb.15, 2008, doi: 10"/>
+    <hyperlink ref="O49" r:id="rId47" location="citeas" display="Redding, B., Liew, S., Sarma, R. et al. Compact spectrometer based on a disordered photonic chip. Nature Photon 7, 746–751 (2013). https://doi.org/10.1038/nphoton.2013.190"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5390,11 +5422,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
@@ -5414,2398 +5446,2398 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="M2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>113</v>
+      <c r="P2" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="26" t="n">
+      <c r="A3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="27" t="n">
         <v>720</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="27" t="n">
         <v>900</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26" t="n">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="n">
         <v>1991</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>115</v>
+      <c r="P3" s="29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="30" t="n">
+      <c r="A4" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="31" t="n">
         <v>400</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="31" t="n">
         <v>1100</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="n">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="31" t="n">
         <v>100000000000000</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30" t="n">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="31" t="n">
         <v>168</v>
       </c>
-      <c r="L4" s="30" t="n">
+      <c r="L4" s="31" t="n">
         <v>555</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30" t="n">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31" t="n">
         <v>2021</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="P4" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="n">
+    </row>
+    <row r="5" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="n">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="n">
         <v>750</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="n">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="30" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="30" t="n">
+      <c r="O5" s="31" t="n">
         <v>2014</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>120</v>
+      <c r="P5" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30" t="n">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="n">
         <v>365</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="n">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="n">
         <v>1310</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="n">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30"/>
-      <c r="M6" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="30" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
+      <c r="M6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="30" t="n">
+      <c r="O6" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="P6" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="P6" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="n">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="n">
         <v>5000</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30" t="n">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="n">
         <v>9000</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="30" t="n">
+      <c r="O7" s="31" t="n">
         <v>2020</v>
       </c>
-      <c r="P7" s="35" t="s">
-        <v>125</v>
+      <c r="P7" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="n">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="n">
         <v>500</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30" t="n">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="30" t="n">
+      <c r="O8" s="31" t="n">
         <v>2011</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="31" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D9" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="n">
+        <v>2009</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="31" t="n">
+        <v>350</v>
+      </c>
+      <c r="C10" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="D10" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K10" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="L10" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C11" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="D11" s="31" t="n">
+        <v>370</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K11" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="L11" s="31" t="n">
+        <v>95</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="D12" s="31" t="n">
+        <v>532</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="32" t="n">
+        <v>70</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="L12" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="n">
+        <v>2014</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="C13" s="31" t="n">
+        <v>720</v>
+      </c>
+      <c r="D13" s="31" t="n">
+        <v>570</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="32" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K13" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="31" t="n">
+        <v>610</v>
+      </c>
+      <c r="C14" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="D14" s="31" t="n">
+        <v>670</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="n">
+        <v>85</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="32" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="31" t="n">
+        <v>160</v>
+      </c>
+      <c r="L14" s="31" t="n">
+        <v>95</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C15" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="31" t="n">
+        <v>148</v>
+      </c>
+      <c r="L15" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="31" t="n">
+        <v>600</v>
+      </c>
+      <c r="C16" s="31" t="n">
+        <v>870</v>
+      </c>
+      <c r="D16" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="32" t="n">
+        <v>23</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K16" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="31" t="n">
+        <v>900</v>
+      </c>
+      <c r="C17" s="31" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D17" s="31" t="n">
+        <v>950</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C18" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="D18" s="31" t="n">
+        <v>528</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="32" t="n">
+        <v>27</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K18" s="31" t="n">
+        <v>148</v>
+      </c>
+      <c r="L18" s="31" t="n">
+        <v>91</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="C19" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="D19" s="31" t="n">
+        <v>660</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="32" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="32" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K19" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="L19" s="31" t="n">
+        <v>900</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="31" t="n">
+        <v>640</v>
+      </c>
+      <c r="C20" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="D20" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="n">
+        <v>28</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="32" t="n">
+        <v>53500</v>
+      </c>
+      <c r="I20" s="32" t="n">
+        <v>278</v>
+      </c>
+      <c r="J20" s="32" t="n">
+        <v>-60</v>
+      </c>
+      <c r="K20" s="31" t="n">
+        <v>160</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="C21" s="31" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D21" s="31" t="n">
+        <v>775</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="31" t="n">
+        <v>130</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="C22" s="31" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D22" s="31" t="n">
+        <v>960</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="32" t="n">
+        <v>24</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="31" t="n">
+        <v>130</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="31" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="n">
+        <v>35</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="31" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="n">
+        <v>38</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="31" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D25" s="31" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31" t="n">
+        <v>47</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="31" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D26" s="31" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31" t="n">
+        <v>41</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>875</v>
+      </c>
+      <c r="C27" s="31" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D27" s="31" t="n">
+        <v>905</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31" t="n">
+        <v>43</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="32" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="31" t="n">
+        <v>810</v>
+      </c>
+      <c r="C28" s="31" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="C29" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="31" t="n">
+        <v>630</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="30" t="n">
+      <c r="J29" s="32" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K29" s="31" t="n">
+        <v>65</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="31" t="n">
         <v>300</v>
       </c>
-      <c r="C9" s="30" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D9" s="30" t="n">
+      <c r="C30" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="32" t="n">
+        <v>48</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="31" t="n">
+        <v>790</v>
+      </c>
+      <c r="C31" s="31" t="n">
         <v>800</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="31" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" s="31" t="s">
+      <c r="D31" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="32" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K31" s="31" t="n">
+        <v>170</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="31" t="n">
+        <v>350</v>
+      </c>
+      <c r="C32" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="D32" s="31" t="n">
+        <v>360</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="32" t="n">
+        <v>2170</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="32" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C33" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="D33" s="31" t="n">
+        <v>720</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="31" t="n">
+        <v>97</v>
+      </c>
+      <c r="L33" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="31" t="n">
+        <v>420</v>
+      </c>
+      <c r="C34" s="31" t="n">
+        <v>550</v>
+      </c>
+      <c r="D34" s="31" t="n">
+        <v>481</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="n">
+        <v>76</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="31" t="n">
+        <v>400</v>
+      </c>
+      <c r="C35" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="D35" s="31" t="n">
+        <v>645</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31" t="n">
+        <v>84</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="31" t="n">
         <v>130</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="30" t="n">
+      <c r="L35" s="31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="31" t="n">
+        <v>810</v>
+      </c>
+      <c r="C36" s="31" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D36" s="31" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="31" t="n">
+        <v>810</v>
+      </c>
+      <c r="C37" s="31" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D37" s="31" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C38" s="31" t="n">
+        <v>800</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>730</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K38" s="31" t="n">
+        <v>173</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P38" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="31" t="n">
+        <v>645</v>
+      </c>
+      <c r="C39" s="31" t="n">
+        <v>745</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>745</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="31" t="n">
+        <v>103</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="31" t="n">
+        <v>860</v>
+      </c>
+      <c r="C40" s="31" t="n">
+        <v>960</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>860</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="32" t="n">
+        <v>61</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="31" t="n">
+        <v>860</v>
+      </c>
+      <c r="C41" s="31" t="n">
+        <v>960</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>920</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="31" t="n">
+        <v>860</v>
+      </c>
+      <c r="C42" s="31" t="n">
+        <v>960</v>
+      </c>
+      <c r="D42" s="31" t="n">
+        <v>955</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="31" t="n">
+        <v>750</v>
+      </c>
+      <c r="C43" s="31" t="n">
+        <v>950</v>
+      </c>
+      <c r="D43" s="31" t="n">
+        <v>700</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="H43" s="32" t="n">
+        <v>53</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31" t="n">
+        <v>80</v>
+      </c>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="31" t="n">
+        <v>790</v>
+      </c>
+      <c r="C44" s="31" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D44" s="31" t="n">
+        <v>877</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31" t="n">
+        <v>37</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="31" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C45" s="31" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D45" s="31" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31" t="n">
+        <v>58</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="J45" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="31" t="n">
+        <v>139</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C46" s="31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="31" t="n">
+        <v>870</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46" s="31" t="n">
+        <v>123</v>
+      </c>
+      <c r="L46" s="31" t="n">
         <v>100</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="30" t="n">
-        <v>350</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D10" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K10" s="30" t="n">
-        <v>140</v>
-      </c>
-      <c r="L10" s="30" t="n">
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="31" t="n">
+        <v>830</v>
+      </c>
+      <c r="C47" s="31" t="n">
+        <v>880</v>
+      </c>
+      <c r="D47" s="31" t="n">
+        <v>850</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31" t="n">
+        <v>27</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" s="32" t="n">
+        <v>15300</v>
+      </c>
+      <c r="I47" s="32" t="n">
+        <v>105</v>
+      </c>
+      <c r="J47" s="32" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K47" s="31" t="n">
+        <v>145</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P47" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="C48" s="31" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D48" s="31" t="n">
+        <v>710</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31" t="n">
+        <v>60</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="31" t="n">
+        <v>146</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="C49" s="31" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D49" s="31" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31" t="n">
+        <v>45</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P49" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="C50" s="31" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D50" s="31" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="n">
+        <v>35</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J50" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="31" t="n">
+        <v>650</v>
+      </c>
+      <c r="C51" s="31" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D51" s="31" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30" t="n">
-        <v>2013</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="D11" s="30" t="n">
-        <v>370</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="31" t="n">
-        <v>40</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="31" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>180</v>
-      </c>
-      <c r="L11" s="30" t="n">
-        <v>95</v>
-      </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30" t="n">
-        <v>2013</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C12" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D12" s="30" t="n">
-        <v>532</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="31" t="n">
-        <v>70</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="30" t="n">
-        <v>180</v>
-      </c>
-      <c r="L12" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30" t="n">
-        <v>2014</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="C13" s="30" t="n">
-        <v>720</v>
-      </c>
-      <c r="D13" s="30" t="n">
-        <v>570</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="31" t="n">
-        <v>76</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="31" t="n">
-        <v>-5</v>
-      </c>
-      <c r="K13" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="30" t="n">
-        <v>610</v>
-      </c>
-      <c r="C14" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D14" s="30" t="n">
-        <v>670</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="n">
-        <v>85</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="31" t="n">
-        <v>35</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="30" t="n">
-        <v>160</v>
-      </c>
-      <c r="L14" s="30" t="n">
-        <v>95</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C15" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="31" t="n">
-        <v>28</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" s="30" t="n">
-        <v>148</v>
-      </c>
-      <c r="L15" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="C16" s="30" t="n">
-        <v>870</v>
-      </c>
-      <c r="D16" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="31" t="n">
-        <v>23</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K16" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="30" t="n">
-        <v>900</v>
-      </c>
-      <c r="C17" s="30" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D17" s="30" t="n">
-        <v>950</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C18" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D18" s="30" t="n">
-        <v>528</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="31" t="n">
-        <v>27</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K18" s="30" t="n">
-        <v>148</v>
-      </c>
-      <c r="L18" s="30" t="n">
-        <v>91</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="C19" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="D19" s="30" t="n">
-        <v>660</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="31" t="n">
-        <v>200</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="31" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K19" s="30" t="n">
-        <v>220</v>
-      </c>
-      <c r="L19" s="30" t="n">
-        <v>900</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="30" t="n">
-        <v>640</v>
-      </c>
-      <c r="C20" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="D20" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="n">
-        <v>28</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="31" t="n">
-        <v>53500</v>
-      </c>
-      <c r="I20" s="31" t="n">
-        <v>278</v>
-      </c>
-      <c r="J20" s="31" t="n">
-        <v>-60</v>
-      </c>
-      <c r="K20" s="30" t="n">
-        <v>160</v>
-      </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="C21" s="30" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D21" s="30" t="n">
-        <v>775</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="31" t="n">
-        <v>40</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="J21" s="31" t="n">
+      <c r="G51" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J51" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="30" t="n">
-        <v>130</v>
-      </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="C22" s="30" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D22" s="30" t="n">
-        <v>960</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="n">
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="31" t="n">
+        <v>826</v>
+      </c>
+      <c r="C52" s="31" t="n">
+        <v>879</v>
+      </c>
+      <c r="D52" s="31" t="n">
+        <v>826</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="31" t="n">
-        <v>24</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="30" t="n">
-        <v>130</v>
-      </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="30" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D23" s="30" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="n">
-        <v>35</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="30" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D24" s="30" t="n">
-        <v>1440</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="n">
-        <v>38</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="J24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="30" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D25" s="30" t="n">
-        <v>1580</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="n">
-        <v>47</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P25" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="30" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D26" s="30" t="n">
-        <v>1680</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="n">
-        <v>41</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="30" t="n">
-        <v>875</v>
-      </c>
-      <c r="C27" s="30" t="n">
-        <v>1085</v>
-      </c>
-      <c r="D27" s="30" t="n">
-        <v>905</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="n">
-        <v>43</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="30" t="n">
-        <v>810</v>
-      </c>
-      <c r="C28" s="30" t="n">
-        <v>1550</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="C29" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D29" s="30" t="n">
-        <v>630</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="31" t="n">
-        <v>-40</v>
-      </c>
-      <c r="K29" s="30" t="n">
-        <v>65</v>
-      </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C30" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="H30" s="31" t="n">
-        <v>48</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="30" t="n">
-        <v>790</v>
-      </c>
-      <c r="C31" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D31" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="31" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" s="31" t="n">
-        <v>-50</v>
-      </c>
-      <c r="K31" s="30" t="n">
-        <v>170</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P31" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="30" t="n">
-        <v>350</v>
-      </c>
-      <c r="C32" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="D32" s="30" t="n">
-        <v>360</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="31" t="n">
-        <v>2170</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="J32" s="31" t="n">
-        <v>-15</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P32" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C33" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="D33" s="30" t="n">
-        <v>720</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H33" s="31" t="n">
-        <v>56</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="30" t="n">
-        <v>97</v>
-      </c>
-      <c r="L33" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="30" t="n">
-        <v>420</v>
-      </c>
-      <c r="C34" s="30" t="n">
-        <v>550</v>
-      </c>
-      <c r="D34" s="30" t="n">
-        <v>481</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="n">
-        <v>76</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P34" s="32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="C35" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="D35" s="30" t="n">
-        <v>645</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="n">
-        <v>84</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H35" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="30" t="n">
-        <v>130</v>
-      </c>
-      <c r="L35" s="30" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P35" s="32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="30" t="n">
-        <v>810</v>
-      </c>
-      <c r="C36" s="30" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D36" s="30" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="J36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="30" t="n">
-        <v>810</v>
-      </c>
-      <c r="C37" s="30" t="n">
-        <v>1665</v>
-      </c>
-      <c r="D37" s="30" t="n">
-        <v>1665</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C38" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="D38" s="30" t="n">
-        <v>730</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="31" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K38" s="30" t="n">
-        <v>173</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P38" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="30" t="n">
-        <v>645</v>
-      </c>
-      <c r="C39" s="30" t="n">
-        <v>745</v>
-      </c>
-      <c r="D39" s="30" t="n">
-        <v>745</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30" t="n">
-        <v>103</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P39" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B40" s="30" t="n">
-        <v>860</v>
-      </c>
-      <c r="C40" s="30" t="n">
-        <v>960</v>
-      </c>
-      <c r="D40" s="30" t="n">
-        <v>860</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="31" t="n">
-        <v>61</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P40" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="30" t="n">
-        <v>860</v>
-      </c>
-      <c r="C41" s="30" t="n">
-        <v>960</v>
-      </c>
-      <c r="D41" s="30" t="n">
-        <v>920</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30" t="n">
-        <v>40</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P41" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" s="30" t="n">
-        <v>860</v>
-      </c>
-      <c r="C42" s="30" t="n">
-        <v>960</v>
-      </c>
-      <c r="D42" s="30" t="n">
-        <v>955</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P42" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="30" t="n">
-        <v>750</v>
-      </c>
-      <c r="C43" s="30" t="n">
-        <v>950</v>
-      </c>
-      <c r="D43" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30" t="n">
-        <v>120</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="H43" s="31" t="n">
-        <v>53</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P43" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="30" t="n">
-        <v>790</v>
-      </c>
-      <c r="C44" s="30" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D44" s="30" t="n">
-        <v>877</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="n">
-        <v>37</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="J44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="30" t="n">
-        <v>120</v>
-      </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P44" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" s="30" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C45" s="30" t="n">
-        <v>1435</v>
-      </c>
-      <c r="D45" s="30" t="n">
-        <v>1115</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="n">
-        <v>58</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="J45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="30" t="n">
-        <v>139</v>
-      </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P45" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="C46" s="30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D46" s="30" t="n">
-        <v>870</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="K46" s="30" t="n">
-        <v>123</v>
-      </c>
-      <c r="L46" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30" t="n">
+      <c r="G52" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="32" t="n">
+        <v>75</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J52" s="32" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31" t="n">
         <v>2021</v>
       </c>
-      <c r="P46" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="30" t="n">
-        <v>830</v>
-      </c>
-      <c r="C47" s="30" t="n">
-        <v>880</v>
-      </c>
-      <c r="D47" s="30" t="n">
-        <v>850</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="n">
-        <v>27</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H47" s="31" t="n">
-        <v>15300</v>
-      </c>
-      <c r="I47" s="31" t="n">
-        <v>105</v>
-      </c>
-      <c r="J47" s="31" t="n">
-        <v>-13</v>
-      </c>
-      <c r="K47" s="30" t="n">
-        <v>145</v>
-      </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P47" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B48" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="C48" s="30" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D48" s="30" t="n">
-        <v>710</v>
-      </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" s="31" t="n">
-        <v>18</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="30" t="n">
-        <v>146</v>
-      </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P48" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B49" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="C49" s="30" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D49" s="30" t="n">
-        <v>1130</v>
-      </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H49" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P49" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="C50" s="30" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D50" s="30" t="n">
-        <v>1360</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="n">
-        <v>35</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="J50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P50" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51" s="30" t="n">
-        <v>650</v>
-      </c>
-      <c r="C51" s="30" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D51" s="30" t="n">
-        <v>1510</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P51" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="30" t="n">
-        <v>826</v>
-      </c>
-      <c r="C52" s="30" t="n">
-        <v>879</v>
-      </c>
-      <c r="D52" s="30" t="n">
-        <v>826</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30" t="n">
-        <v>17</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H52" s="31" t="n">
-        <v>75</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" s="31" t="n">
-        <v>-10</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P52" s="32" t="s">
-        <v>265</v>
+      <c r="P52" s="33" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7886,11 +7918,11 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.14"/>
@@ -7898,382 +7930,382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>268</v>
       </c>
+      <c r="C1" s="39" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
-        <v>269</v>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39" t="s">
-        <v>270</v>
+      <c r="A9" s="38"/>
+      <c r="B9" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37" t="s">
-        <v>118</v>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37" t="s">
-        <v>271</v>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
-        <v>272</v>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
-        <v>133</v>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37" t="s">
-        <v>137</v>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
-        <v>141</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37" t="s">
-        <v>141</v>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37" t="s">
-        <v>141</v>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37" t="s">
-        <v>150</v>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
-        <v>153</v>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37" t="s">
-        <v>156</v>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37" t="s">
-        <v>160</v>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37" t="s">
-        <v>164</v>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
-        <v>167</v>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37" t="s">
-        <v>128</v>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
-        <v>128</v>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37" t="s">
-        <v>173</v>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
-        <v>173</v>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37" t="s">
-        <v>173</v>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37" t="s">
-        <v>173</v>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
-        <v>183</v>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37" t="s">
-        <v>186</v>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37" t="s">
-        <v>187</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37" t="s">
-        <v>191</v>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
-        <v>167</v>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37" t="s">
-        <v>198</v>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37" t="s">
-        <v>202</v>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37" t="s">
-        <v>206</v>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37" t="s">
-        <v>210</v>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37" t="s">
-        <v>214</v>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37" t="s">
-        <v>214</v>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37" t="s">
-        <v>221</v>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37" t="s">
-        <v>227</v>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37" t="s">
-        <v>233</v>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37" t="s">
-        <v>237</v>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37" t="s">
-        <v>237</v>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37" t="s">
-        <v>240</v>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37" t="s">
-        <v>183</v>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37" t="s">
-        <v>245</v>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37" t="s">
-        <v>247</v>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37" t="s">
-        <v>252</v>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37" t="s">
-        <v>255</v>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37" t="s">
-        <v>255</v>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37" t="s">
-        <v>255</v>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37" t="s">
-        <v>255</v>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
-        <v>183</v>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37" t="s">
-        <v>114</v>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="40" t="s">
-        <v>116</v>
+      <c r="A61" s="38"/>
+      <c r="B61" s="41" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="276">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t xml:space="preserve">Redding, B., Liew, S., Sarma, R. et al. Compact spectrometer based on a disordered photonic chip. Nature Photon 7, 746–751 (2013). https://doi.org/10.1038/nphoton.2013.190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 x 220 e-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babak Momeni, Ehsan Shah Hosseini, Murtaza Askari, Mohammad Soltani, Ali Adibi, Integrated photonic crystal spectrometers for sensing applications, Optics Communications, Volume 282, Issue 15, 2009</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -972,11 +978,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1300,7 +1305,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1461,7 +1466,7 @@
   <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O55" activeCellId="0" sqref="O55"/>
+      <selection pane="topLeft" activeCell="O50" activeCellId="0" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3330,9 +3335,7 @@
         <v>33.3333333333333</v>
       </c>
       <c r="I49" s="14"/>
-      <c r="J49" s="21" t="n">
-        <v>2.5E-005</v>
-      </c>
+      <c r="J49" s="21"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14" t="s">
@@ -3346,24 +3349,44 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="14" t="n">
+        <v>1560</v>
+      </c>
+      <c r="D50" s="14" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E50" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" s="14" t="n">
+        <v>1585</v>
+      </c>
       <c r="G50" s="14"/>
       <c r="H50" s="15" t="str">
         <f aca="false">IF(AND(E50&lt;&gt;0,G50&lt;&gt;0),E50/G50,"")</f>
         <v/>
       </c>
       <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
+      <c r="J50" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="19"/>
+      <c r="M50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14"/>
@@ -5404,6 +5427,7 @@
     <hyperlink ref="O47" r:id="rId45" display="M. Muneeb, X. Chen, P. Verheyen, G. Lepage, S. Pathak, E. Ryckeboer, A. Malik, B. Kuyken, M. Nedeljkovic, J. Van Campenhout, G. Z. Mashanovich, and G. Roelkens, &quot;Demonstration of Silicon-on-insulator mid-infrared spectrometers operating at 3.8μm,&quot; Opt. Ex"/>
     <hyperlink ref="O48" r:id="rId46" display="J. Brouckaert, W. Bogaerts, S. Selvaraja, P. Dumon, R. Baets and D. Van Thourhout, &quot;Planar Concave Grating Demultiplexer With High Reflective Bragg Reflector Facets,&quot; in IEEE Photonics Technology Letters, vol. 20, no. 4, pp. 309-311, Feb.15, 2008, doi: 10"/>
     <hyperlink ref="O49" r:id="rId47" location="citeas" display="Redding, B., Liew, S., Sarma, R. et al. Compact spectrometer based on a disordered photonic chip. Nature Photon 7, 746–751 (2013). https://doi.org/10.1038/nphoton.2013.190"/>
+    <hyperlink ref="O50" r:id="rId48" display="Babak Momeni, Ehsan Shah Hosseini, Murtaza Askari, Mohammad Soltani, Ali Adibi, Integrated photonic crystal spectrometers for sensing applications, Optics Communications, Volume 282, Issue 15, 2009"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5454,13 +5478,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>6</v>
@@ -5469,28 +5493,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>13</v>
@@ -5499,12 +5523,12 @@
         <v>14</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>720</v>
@@ -5527,12 +5551,12 @@
         <v>1991</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>400</v>
@@ -5563,12 +5587,12 @@
         <v>2021</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31" t="n">
@@ -5587,7 +5611,7 @@
       <c r="J5" s="32"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>17</v>
@@ -5596,7 +5620,7 @@
         <v>2014</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -5621,7 +5645,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="31"/>
       <c r="M6" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>17</v>
@@ -5630,7 +5654,7 @@
         <v>2019</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,13 +5672,13 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>17</v>
@@ -5663,7 +5687,7 @@
         <v>2020</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -5682,7 +5706,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -5698,12 +5722,12 @@
         <v>2011</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" s="31" t="n">
         <v>300</v>
@@ -5717,16 +5741,16 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H9" s="32" t="n">
         <v>25</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K9" s="31" t="n">
         <v>100</v>
@@ -5738,12 +5762,12 @@
         <v>2009</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31" t="n">
         <v>350</v>
@@ -5757,13 +5781,13 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H10" s="32" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J10" s="32" t="n">
         <v>-2</v>
@@ -5780,12 +5804,12 @@
         <v>2013</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="31" t="n">
         <v>300</v>
@@ -5799,13 +5823,13 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H11" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J11" s="32" t="n">
         <v>-6</v>
@@ -5822,12 +5846,12 @@
         <v>2013</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="31" t="n">
         <v>300</v>
@@ -5841,13 +5865,13 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H12" s="32" t="n">
         <v>70</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J12" s="32" t="n">
         <v>-1</v>
@@ -5864,12 +5888,12 @@
         <v>2014</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" s="31" t="n">
         <v>400</v>
@@ -5883,13 +5907,13 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="32" t="n">
         <v>76</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J13" s="32" t="n">
         <v>-5</v>
@@ -5906,12 +5930,12 @@
         <v>2015</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14" s="31" t="n">
         <v>610</v>
@@ -5927,13 +5951,13 @@
         <v>85</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="32" t="n">
         <v>35</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J14" s="32" t="n">
         <v>-1</v>
@@ -5950,12 +5974,12 @@
         <v>2015</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" s="31" t="n">
         <v>300</v>
@@ -5969,16 +5993,16 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H15" s="32" t="n">
         <v>28</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="n">
         <v>148</v>
@@ -5992,12 +6016,12 @@
         <v>2015</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" s="31" t="n">
         <v>600</v>
@@ -6011,13 +6035,13 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H16" s="32" t="n">
         <v>23</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J16" s="32" t="n">
         <v>-2</v>
@@ -6032,12 +6056,12 @@
         <v>2015</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="31" t="n">
         <v>900</v>
@@ -6053,13 +6077,13 @@
         <v>80</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J17" s="32" t="n">
         <v>-1</v>
@@ -6072,12 +6096,12 @@
         <v>2015</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B18" s="31" t="n">
         <v>300</v>
@@ -6091,13 +6115,13 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H18" s="32" t="n">
         <v>27</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J18" s="32" t="n">
         <v>-2</v>
@@ -6114,12 +6138,12 @@
         <v>2016</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" s="31" t="n">
         <v>650</v>
@@ -6135,13 +6159,13 @@
         <v>100</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H19" s="32" t="n">
         <v>200</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J19" s="32" t="n">
         <v>-6</v>
@@ -6158,12 +6182,12 @@
         <v>2016</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" s="31" t="n">
         <v>640</v>
@@ -6179,7 +6203,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H20" s="32" t="n">
         <v>53500</v>
@@ -6200,12 +6224,12 @@
         <v>2017</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B21" s="31" t="n">
         <v>700</v>
@@ -6221,13 +6245,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H21" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J21" s="32" t="n">
         <v>0</v>
@@ -6242,12 +6266,12 @@
         <v>2017</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" s="31" t="n">
         <v>700</v>
@@ -6263,13 +6287,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="32" t="n">
         <v>24</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J22" s="32" t="n">
         <v>0</v>
@@ -6284,12 +6308,12 @@
         <v>2017</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" s="31" t="n">
         <v>1000</v>
@@ -6305,13 +6329,13 @@
         <v>35</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" s="32" t="n">
         <v>0</v>
@@ -6324,12 +6348,12 @@
         <v>2017</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B24" s="31" t="n">
         <v>1000</v>
@@ -6345,13 +6369,13 @@
         <v>38</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J24" s="32" t="n">
         <v>0</v>
@@ -6364,12 +6388,12 @@
         <v>2017</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" s="31" t="n">
         <v>1000</v>
@@ -6385,13 +6409,13 @@
         <v>47</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J25" s="32" t="n">
         <v>0</v>
@@ -6404,12 +6428,12 @@
         <v>2017</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B26" s="31" t="n">
         <v>1000</v>
@@ -6425,13 +6449,13 @@
         <v>41</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J26" s="32" t="n">
         <v>0</v>
@@ -6444,12 +6468,12 @@
         <v>2017</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B27" s="31" t="n">
         <v>875</v>
@@ -6465,13 +6489,13 @@
         <v>43</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="32" t="n">
         <v>22</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J27" s="32" t="n">
         <v>0</v>
@@ -6486,12 +6510,12 @@
         <v>2017</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="31" t="n">
         <v>810</v>
@@ -6516,12 +6540,12 @@
         <v>2017</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B29" s="31" t="n">
         <v>400</v>
@@ -6535,13 +6559,13 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J29" s="32" t="n">
         <v>-40</v>
@@ -6556,12 +6580,12 @@
         <v>2018</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B30" s="31" t="n">
         <v>300</v>
@@ -6575,13 +6599,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H30" s="32" t="n">
         <v>48</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J30" s="32" t="n">
         <v>0</v>
@@ -6594,12 +6618,12 @@
         <v>2018</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B31" s="31" t="n">
         <v>790</v>
@@ -6615,13 +6639,13 @@
         <v>30</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H31" s="32" t="n">
         <v>2000</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J31" s="32" t="n">
         <v>-50</v>
@@ -6636,12 +6660,12 @@
         <v>2018</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B32" s="31" t="n">
         <v>350</v>
@@ -6657,20 +6681,20 @@
         <v>20</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H32" s="32" t="n">
         <v>2170</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J32" s="32" t="n">
         <v>-15</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -6678,12 +6702,12 @@
         <v>2018</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B33" s="31" t="n">
         <v>300</v>
@@ -6697,16 +6721,16 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H33" s="32" t="n">
         <v>56</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K33" s="31" t="n">
         <v>97</v>
@@ -6720,12 +6744,12 @@
         <v>2019</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="31" t="n">
         <v>420</v>
@@ -6741,13 +6765,13 @@
         <v>76</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H34" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J34" s="32" t="n">
         <v>0</v>
@@ -6760,12 +6784,12 @@
         <v>2019</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B35" s="31" t="n">
         <v>400</v>
@@ -6781,13 +6805,13 @@
         <v>84</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J35" s="32" t="n">
         <v>0</v>
@@ -6804,12 +6828,12 @@
         <v>2019</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B36" s="31" t="n">
         <v>810</v>
@@ -6825,13 +6849,13 @@
         <v>50</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J36" s="32" t="n">
         <v>0</v>
@@ -6844,12 +6868,12 @@
         <v>2019</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B37" s="31" t="n">
         <v>810</v>
@@ -6865,13 +6889,13 @@
         <v>50</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J37" s="32" t="n">
         <v>0</v>
@@ -6884,12 +6908,12 @@
         <v>2019</v>
       </c>
       <c r="P37" s="37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B38" s="31" t="n">
         <v>300</v>
@@ -6903,13 +6927,13 @@
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J38" s="32" t="n">
         <v>-2</v>
@@ -6918,7 +6942,7 @@
         <v>173</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -6926,12 +6950,12 @@
         <v>2020</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B39" s="31" t="n">
         <v>645</v>
@@ -6947,13 +6971,13 @@
         <v>50</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J39" s="32" t="n">
         <v>0</v>
@@ -6962,7 +6986,7 @@
         <v>103</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
@@ -6970,12 +6994,12 @@
         <v>2020</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" s="31" t="n">
         <v>860</v>
@@ -6991,16 +7015,16 @@
         <v>50</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H40" s="32" t="n">
         <v>61</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
@@ -7010,12 +7034,12 @@
         <v>2020</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B41" s="31" t="n">
         <v>860</v>
@@ -7031,12 +7055,12 @@
         <v>40</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
@@ -7046,12 +7070,12 @@
         <v>2020</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" s="31" t="n">
         <v>860</v>
@@ -7067,12 +7091,12 @@
         <v>50</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
@@ -7082,12 +7106,12 @@
         <v>2020</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B43" s="31" t="n">
         <v>750</v>
@@ -7103,13 +7127,13 @@
         <v>120</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H43" s="32" t="n">
         <v>53</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J43" s="32" t="n">
         <v>0</v>
@@ -7124,12 +7148,12 @@
         <v>2020</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B44" s="31" t="n">
         <v>790</v>
@@ -7145,13 +7169,13 @@
         <v>37</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H44" s="32" t="n">
         <v>10</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J44" s="32" t="n">
         <v>0</v>
@@ -7166,12 +7190,12 @@
         <v>2020</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B45" s="31" t="n">
         <v>1020</v>
@@ -7187,13 +7211,13 @@
         <v>58</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J45" s="32" t="n">
         <v>0</v>
@@ -7208,12 +7232,12 @@
         <v>2020</v>
       </c>
       <c r="P45" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B46" s="31" t="n">
         <v>300</v>
@@ -7227,16 +7251,16 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K46" s="31" t="n">
         <v>123</v>
@@ -7250,12 +7274,12 @@
         <v>2021</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B47" s="31" t="n">
         <v>830</v>
@@ -7271,7 +7295,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H47" s="32" t="n">
         <v>15300</v>
@@ -7292,12 +7316,12 @@
         <v>2021</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B48" s="31" t="n">
         <v>650</v>
@@ -7313,13 +7337,13 @@
         <v>60</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H48" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J48" s="32" t="n">
         <v>0</v>
@@ -7334,12 +7358,12 @@
         <v>2021</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B49" s="31" t="n">
         <v>650</v>
@@ -7355,13 +7379,13 @@
         <v>45</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H49" s="32" t="n">
         <v>6</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J49" s="32" t="n">
         <v>0</v>
@@ -7374,12 +7398,12 @@
         <v>2021</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B50" s="31" t="n">
         <v>650</v>
@@ -7395,13 +7419,13 @@
         <v>35</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J50" s="32" t="n">
         <v>0</v>
@@ -7414,12 +7438,12 @@
         <v>2021</v>
       </c>
       <c r="P50" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="30" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B51" s="31" t="n">
         <v>650</v>
@@ -7435,13 +7459,13 @@
         <v>20</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J51" s="32" t="n">
         <v>0</v>
@@ -7454,12 +7478,12 @@
         <v>2021</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B52" s="31" t="n">
         <v>826</v>
@@ -7475,20 +7499,20 @@
         <v>17</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H52" s="32" t="n">
         <v>75</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J52" s="32" t="n">
         <v>-10</v>
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
@@ -7496,7 +7520,7 @@
         <v>2021</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,13 +7955,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,13 +8011,13 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38"/>
       <c r="B8" s="38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38"/>
       <c r="B9" s="40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8011,7 +8035,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,7 +8047,7 @@
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38"/>
       <c r="B14" s="38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,277 +8059,277 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38"/>
       <c r="B22" s="38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38"/>
       <c r="B24" s="38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38"/>
       <c r="B25" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38"/>
       <c r="B26" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
       <c r="B28" s="38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="38"/>
       <c r="B29" s="38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38"/>
       <c r="B30" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="38"/>
       <c r="B33" s="38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38"/>
       <c r="B34" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="38"/>
       <c r="B35" s="38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38"/>
       <c r="B36" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="38"/>
       <c r="B37" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="38"/>
       <c r="B38" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38"/>
       <c r="B39" s="38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
       <c r="B40" s="38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
       <c r="B41" s="38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
       <c r="B42" s="38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="38"/>
       <c r="B43" s="38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="38"/>
       <c r="B44" s="38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="38"/>
       <c r="B45" s="38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="38"/>
       <c r="B46" s="38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="38"/>
       <c r="B47" s="38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="38"/>
       <c r="B48" s="38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="38"/>
       <c r="B49" s="38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="38"/>
       <c r="B50" s="38" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="38"/>
       <c r="B51" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="38"/>
       <c r="B52" s="38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38"/>
       <c r="B53" s="38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="38"/>
       <c r="B54" s="38" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="38"/>
       <c r="B55" s="38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="38"/>
       <c r="B56" s="38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="38"/>
       <c r="B57" s="38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="38"/>
       <c r="B58" s="38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="38"/>
       <c r="B59" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="38"/>
       <c r="B60" s="38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="38"/>
       <c r="B61" s="41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="279">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t xml:space="preserve">Babak Momeni, Ehsan Shah Hosseini, Murtaza Askari, Mohammad Soltani, Ali Adibi, Integrated photonic crystal spectrometers for sensing applications, Optics Communications, Volume 282, Issue 15, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Ma, K. Chen, N. Zhu, L. Liu and S. He, "High-Resolution Compact On-Chip Spectrometer Based on an Echelle Grating With Densely Packed Waveguide Array," in IEEE Photonics Journal, vol. 11, no. 1, pp. 1-7, Feb. 2019, Art no. 4900107, doi: 10.1109/JPHOT.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -1465,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O50" activeCellId="0" sqref="O50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3389,44 +3398,78 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="14" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H51" s="15" t="str">
         <f aca="false">IF(AND(E51&lt;&gt;0,G51&lt;&gt;0),E51/G51,"")</f>
         <v/>
       </c>
       <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="J51" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="19"/>
+      <c r="M51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="14" t="n">
+        <v>2018</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15" t="str">
+      <c r="A52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="14" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F52" s="14" t="n">
+        <v>1550</v>
+      </c>
+      <c r="G52" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H52" s="15" t="n">
         <f aca="false">IF(AND(E52&lt;&gt;0,G52&lt;&gt;0),E52/G52,"")</f>
-        <v/>
+        <v>20000</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="19"/>
+      <c r="M52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14"/>
@@ -5428,6 +5471,8 @@
     <hyperlink ref="O48" r:id="rId46" display="J. Brouckaert, W. Bogaerts, S. Selvaraja, P. Dumon, R. Baets and D. Van Thourhout, &quot;Planar Concave Grating Demultiplexer With High Reflective Bragg Reflector Facets,&quot; in IEEE Photonics Technology Letters, vol. 20, no. 4, pp. 309-311, Feb.15, 2008, doi: 10"/>
     <hyperlink ref="O49" r:id="rId47" location="citeas" display="Redding, B., Liew, S., Sarma, R. et al. Compact spectrometer based on a disordered photonic chip. Nature Photon 7, 746–751 (2013). https://doi.org/10.1038/nphoton.2013.190"/>
     <hyperlink ref="O50" r:id="rId48" display="Babak Momeni, Ehsan Shah Hosseini, Murtaza Askari, Mohammad Soltani, Ali Adibi, Integrated photonic crystal spectrometers for sensing applications, Optics Communications, Volume 282, Issue 15, 2009"/>
+    <hyperlink ref="O51" r:id="rId49" display="K. Ma, K. Chen, N. Zhu, L. Liu and S. He, &quot;High-Resolution Compact On-Chip Spectrometer Based on an Echelle Grating With Densely Packed Waveguide Array,&quot; in IEEE Photonics Journal, vol. 11, no. 1, pp. 1-7, Feb. 2019, Art no. 4900107, doi: 10.1109/JPHOT.20"/>
+    <hyperlink ref="O52" r:id="rId50" display="Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5450,7 +5495,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
@@ -5478,13 +5523,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>6</v>
@@ -5493,28 +5538,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>13</v>
@@ -5523,12 +5568,12 @@
         <v>14</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>720</v>
@@ -5551,12 +5596,12 @@
         <v>1991</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>400</v>
@@ -5587,12 +5632,12 @@
         <v>2021</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31" t="n">
@@ -5611,7 +5656,7 @@
       <c r="J5" s="32"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>17</v>
@@ -5620,7 +5665,7 @@
         <v>2014</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -5645,7 +5690,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="31"/>
       <c r="M6" s="31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>17</v>
@@ -5654,7 +5699,7 @@
         <v>2019</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,13 +5717,13 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>17</v>
@@ -5687,7 +5732,7 @@
         <v>2020</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -5706,7 +5751,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -5722,12 +5767,12 @@
         <v>2011</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B9" s="31" t="n">
         <v>300</v>
@@ -5741,16 +5786,16 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H9" s="32" t="n">
         <v>25</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K9" s="31" t="n">
         <v>100</v>
@@ -5762,12 +5807,12 @@
         <v>2009</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" s="31" t="n">
         <v>350</v>
@@ -5781,13 +5826,13 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H10" s="32" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J10" s="32" t="n">
         <v>-2</v>
@@ -5804,12 +5849,12 @@
         <v>2013</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" s="31" t="n">
         <v>300</v>
@@ -5823,13 +5868,13 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H11" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J11" s="32" t="n">
         <v>-6</v>
@@ -5846,12 +5891,12 @@
         <v>2013</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B12" s="31" t="n">
         <v>300</v>
@@ -5865,13 +5910,13 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="32" t="n">
         <v>70</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J12" s="32" t="n">
         <v>-1</v>
@@ -5888,12 +5933,12 @@
         <v>2014</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B13" s="31" t="n">
         <v>400</v>
@@ -5907,13 +5952,13 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H13" s="32" t="n">
         <v>76</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J13" s="32" t="n">
         <v>-5</v>
@@ -5930,12 +5975,12 @@
         <v>2015</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B14" s="31" t="n">
         <v>610</v>
@@ -5951,13 +5996,13 @@
         <v>85</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H14" s="32" t="n">
         <v>35</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J14" s="32" t="n">
         <v>-1</v>
@@ -5974,12 +6019,12 @@
         <v>2015</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B15" s="31" t="n">
         <v>300</v>
@@ -5993,16 +6038,16 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H15" s="32" t="n">
         <v>28</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K15" s="31" t="n">
         <v>148</v>
@@ -6016,12 +6061,12 @@
         <v>2015</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B16" s="31" t="n">
         <v>600</v>
@@ -6035,13 +6080,13 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H16" s="32" t="n">
         <v>23</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J16" s="32" t="n">
         <v>-2</v>
@@ -6056,12 +6101,12 @@
         <v>2015</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B17" s="31" t="n">
         <v>900</v>
@@ -6077,13 +6122,13 @@
         <v>80</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J17" s="32" t="n">
         <v>-1</v>
@@ -6096,12 +6141,12 @@
         <v>2015</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B18" s="31" t="n">
         <v>300</v>
@@ -6115,13 +6160,13 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H18" s="32" t="n">
         <v>27</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J18" s="32" t="n">
         <v>-2</v>
@@ -6138,12 +6183,12 @@
         <v>2016</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B19" s="31" t="n">
         <v>650</v>
@@ -6159,13 +6204,13 @@
         <v>100</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H19" s="32" t="n">
         <v>200</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J19" s="32" t="n">
         <v>-6</v>
@@ -6182,12 +6227,12 @@
         <v>2016</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" s="31" t="n">
         <v>640</v>
@@ -6203,7 +6248,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H20" s="32" t="n">
         <v>53500</v>
@@ -6224,12 +6269,12 @@
         <v>2017</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" s="31" t="n">
         <v>700</v>
@@ -6245,13 +6290,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H21" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J21" s="32" t="n">
         <v>0</v>
@@ -6266,12 +6311,12 @@
         <v>2017</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B22" s="31" t="n">
         <v>700</v>
@@ -6287,13 +6332,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H22" s="32" t="n">
         <v>24</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J22" s="32" t="n">
         <v>0</v>
@@ -6308,12 +6353,12 @@
         <v>2017</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B23" s="31" t="n">
         <v>1000</v>
@@ -6329,13 +6374,13 @@
         <v>35</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J23" s="32" t="n">
         <v>0</v>
@@ -6348,12 +6393,12 @@
         <v>2017</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B24" s="31" t="n">
         <v>1000</v>
@@ -6369,13 +6414,13 @@
         <v>38</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J24" s="32" t="n">
         <v>0</v>
@@ -6388,12 +6433,12 @@
         <v>2017</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B25" s="31" t="n">
         <v>1000</v>
@@ -6409,13 +6454,13 @@
         <v>47</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J25" s="32" t="n">
         <v>0</v>
@@ -6428,12 +6473,12 @@
         <v>2017</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B26" s="31" t="n">
         <v>1000</v>
@@ -6449,13 +6494,13 @@
         <v>41</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J26" s="32" t="n">
         <v>0</v>
@@ -6468,12 +6513,12 @@
         <v>2017</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B27" s="31" t="n">
         <v>875</v>
@@ -6489,13 +6534,13 @@
         <v>43</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H27" s="32" t="n">
         <v>22</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J27" s="32" t="n">
         <v>0</v>
@@ -6510,12 +6555,12 @@
         <v>2017</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="31" t="n">
         <v>810</v>
@@ -6540,12 +6585,12 @@
         <v>2017</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B29" s="31" t="n">
         <v>400</v>
@@ -6559,13 +6604,13 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J29" s="32" t="n">
         <v>-40</v>
@@ -6580,12 +6625,12 @@
         <v>2018</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B30" s="31" t="n">
         <v>300</v>
@@ -6599,13 +6644,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H30" s="32" t="n">
         <v>48</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J30" s="32" t="n">
         <v>0</v>
@@ -6618,12 +6663,12 @@
         <v>2018</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B31" s="31" t="n">
         <v>790</v>
@@ -6639,13 +6684,13 @@
         <v>30</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H31" s="32" t="n">
         <v>2000</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J31" s="32" t="n">
         <v>-50</v>
@@ -6660,12 +6705,12 @@
         <v>2018</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B32" s="31" t="n">
         <v>350</v>
@@ -6681,20 +6726,20 @@
         <v>20</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H32" s="32" t="n">
         <v>2170</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J32" s="32" t="n">
         <v>-15</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -6702,12 +6747,12 @@
         <v>2018</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B33" s="31" t="n">
         <v>300</v>
@@ -6721,16 +6766,16 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H33" s="32" t="n">
         <v>56</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K33" s="31" t="n">
         <v>97</v>
@@ -6744,12 +6789,12 @@
         <v>2019</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B34" s="31" t="n">
         <v>420</v>
@@ -6765,13 +6810,13 @@
         <v>76</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H34" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J34" s="32" t="n">
         <v>0</v>
@@ -6784,12 +6829,12 @@
         <v>2019</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B35" s="31" t="n">
         <v>400</v>
@@ -6805,13 +6850,13 @@
         <v>84</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J35" s="32" t="n">
         <v>0</v>
@@ -6828,12 +6873,12 @@
         <v>2019</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B36" s="31" t="n">
         <v>810</v>
@@ -6849,13 +6894,13 @@
         <v>50</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J36" s="32" t="n">
         <v>0</v>
@@ -6868,12 +6913,12 @@
         <v>2019</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B37" s="31" t="n">
         <v>810</v>
@@ -6889,13 +6934,13 @@
         <v>50</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J37" s="32" t="n">
         <v>0</v>
@@ -6908,12 +6953,12 @@
         <v>2019</v>
       </c>
       <c r="P37" s="37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B38" s="31" t="n">
         <v>300</v>
@@ -6927,13 +6972,13 @@
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J38" s="32" t="n">
         <v>-2</v>
@@ -6942,7 +6987,7 @@
         <v>173</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -6950,12 +6995,12 @@
         <v>2020</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B39" s="31" t="n">
         <v>645</v>
@@ -6971,13 +7016,13 @@
         <v>50</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J39" s="32" t="n">
         <v>0</v>
@@ -6986,7 +7031,7 @@
         <v>103</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
@@ -6994,12 +7039,12 @@
         <v>2020</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B40" s="31" t="n">
         <v>860</v>
@@ -7015,16 +7060,16 @@
         <v>50</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H40" s="32" t="n">
         <v>61</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
@@ -7034,12 +7079,12 @@
         <v>2020</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B41" s="31" t="n">
         <v>860</v>
@@ -7055,12 +7100,12 @@
         <v>40</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
@@ -7070,12 +7115,12 @@
         <v>2020</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B42" s="31" t="n">
         <v>860</v>
@@ -7091,12 +7136,12 @@
         <v>50</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
@@ -7106,12 +7151,12 @@
         <v>2020</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B43" s="31" t="n">
         <v>750</v>
@@ -7127,13 +7172,13 @@
         <v>120</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H43" s="32" t="n">
         <v>53</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J43" s="32" t="n">
         <v>0</v>
@@ -7148,12 +7193,12 @@
         <v>2020</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B44" s="31" t="n">
         <v>790</v>
@@ -7169,13 +7214,13 @@
         <v>37</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H44" s="32" t="n">
         <v>10</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J44" s="32" t="n">
         <v>0</v>
@@ -7190,12 +7235,12 @@
         <v>2020</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B45" s="31" t="n">
         <v>1020</v>
@@ -7211,13 +7256,13 @@
         <v>58</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J45" s="32" t="n">
         <v>0</v>
@@ -7232,12 +7277,12 @@
         <v>2020</v>
       </c>
       <c r="P45" s="33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B46" s="31" t="n">
         <v>300</v>
@@ -7251,16 +7296,16 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K46" s="31" t="n">
         <v>123</v>
@@ -7274,12 +7319,12 @@
         <v>2021</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B47" s="31" t="n">
         <v>830</v>
@@ -7295,7 +7340,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H47" s="32" t="n">
         <v>15300</v>
@@ -7316,12 +7361,12 @@
         <v>2021</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B48" s="31" t="n">
         <v>650</v>
@@ -7337,13 +7382,13 @@
         <v>60</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H48" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J48" s="32" t="n">
         <v>0</v>
@@ -7358,12 +7403,12 @@
         <v>2021</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B49" s="31" t="n">
         <v>650</v>
@@ -7379,13 +7424,13 @@
         <v>45</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H49" s="32" t="n">
         <v>6</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J49" s="32" t="n">
         <v>0</v>
@@ -7398,12 +7443,12 @@
         <v>2021</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B50" s="31" t="n">
         <v>650</v>
@@ -7419,13 +7464,13 @@
         <v>35</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J50" s="32" t="n">
         <v>0</v>
@@ -7438,12 +7483,12 @@
         <v>2021</v>
       </c>
       <c r="P50" s="33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B51" s="31" t="n">
         <v>650</v>
@@ -7459,13 +7504,13 @@
         <v>20</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J51" s="32" t="n">
         <v>0</v>
@@ -7478,12 +7523,12 @@
         <v>2021</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B52" s="31" t="n">
         <v>826</v>
@@ -7499,20 +7544,20 @@
         <v>17</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H52" s="32" t="n">
         <v>75</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J52" s="32" t="n">
         <v>-10</v>
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
@@ -7520,7 +7565,7 @@
         <v>2021</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +7991,7 @@
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.14"/>
@@ -7955,13 +8000,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8011,13 +8056,13 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38"/>
       <c r="B8" s="38" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38"/>
       <c r="B9" s="40" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,7 +8080,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,7 +8092,7 @@
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38"/>
       <c r="B14" s="38" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,277 +8104,277 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38"/>
       <c r="B22" s="38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38"/>
       <c r="B24" s="38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38"/>
       <c r="B25" s="38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38"/>
       <c r="B26" s="38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
       <c r="B28" s="38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="38"/>
       <c r="B29" s="38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38"/>
       <c r="B30" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="38"/>
       <c r="B33" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38"/>
       <c r="B34" s="38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="38"/>
       <c r="B35" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38"/>
       <c r="B36" s="38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="38"/>
       <c r="B37" s="38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="38"/>
       <c r="B38" s="38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38"/>
       <c r="B39" s="38" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
       <c r="B40" s="38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
       <c r="B41" s="38" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
       <c r="B42" s="38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="38"/>
       <c r="B43" s="38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="38"/>
       <c r="B44" s="38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="38"/>
       <c r="B45" s="38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="38"/>
       <c r="B46" s="38" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="38"/>
       <c r="B47" s="38" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="38"/>
       <c r="B48" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="38"/>
       <c r="B49" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="38"/>
       <c r="B50" s="38" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="38"/>
       <c r="B51" s="38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="38"/>
       <c r="B52" s="38" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38"/>
       <c r="B53" s="38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="38"/>
       <c r="B54" s="38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="38"/>
       <c r="B55" s="38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="38"/>
       <c r="B56" s="38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="38"/>
       <c r="B57" s="38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="38"/>
       <c r="B58" s="38" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="38"/>
       <c r="B59" s="38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="38"/>
       <c r="B60" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="38"/>
       <c r="B61" s="41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="280">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li A, Wu YF, Wang C et al. An inversely designed integrated spectrometer with reconfigurable performance and ultra-low power consumption. Opto-Electron Adv 7, 240099 (2024). doi: 10.29026/oea.2024.240099</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -1475,7 +1478,7 @@
   <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
+      <selection pane="topLeft" activeCell="O53" activeCellId="0" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3472,24 +3475,46 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15" t="str">
+      <c r="A53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="14" t="n">
+        <v>1460</v>
+      </c>
+      <c r="D53" s="14" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>120</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G53" s="14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" s="15" t="n">
         <f aca="false">IF(AND(E53&lt;&gt;0,G53&lt;&gt;0),E53/G53,"")</f>
-        <v/>
+        <v>120000</v>
       </c>
       <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="14" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="19"/>
+      <c r="M53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14"/>
@@ -5473,6 +5498,7 @@
     <hyperlink ref="O50" r:id="rId48" display="Babak Momeni, Ehsan Shah Hosseini, Murtaza Askari, Mohammad Soltani, Ali Adibi, Integrated photonic crystal spectrometers for sensing applications, Optics Communications, Volume 282, Issue 15, 2009"/>
     <hyperlink ref="O51" r:id="rId49" display="K. Ma, K. Chen, N. Zhu, L. Liu and S. He, &quot;High-Resolution Compact On-Chip Spectrometer Based on an Echelle Grating With Densely Packed Waveguide Array,&quot; in IEEE Photonics Journal, vol. 11, no. 1, pp. 1-7, Feb. 2019, Art no. 4900107, doi: 10.1109/JPHOT.20"/>
     <hyperlink ref="O52" r:id="rId50" display="Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886"/>
+    <hyperlink ref="O53" r:id="rId51" display="Li A, Wu YF, Wang C et al. An inversely designed integrated spectrometer with reconfigurable performance and ultra-low power consumption. Opto-Electron Adv 7, 240099 (2024). doi: 10.29026/oea.2024.240099"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5523,13 +5549,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>6</v>
@@ -5538,28 +5564,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>13</v>
@@ -5568,12 +5594,12 @@
         <v>14</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="27" t="n">
         <v>720</v>
@@ -5596,12 +5622,12 @@
         <v>1991</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>400</v>
@@ -5632,12 +5658,12 @@
         <v>2021</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31" t="n">
@@ -5656,7 +5682,7 @@
       <c r="J5" s="32"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>17</v>
@@ -5665,7 +5691,7 @@
         <v>2014</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -5690,7 +5716,7 @@
       <c r="J6" s="32"/>
       <c r="K6" s="31"/>
       <c r="M6" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>17</v>
@@ -5699,7 +5725,7 @@
         <v>2019</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,13 +5743,13 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>17</v>
@@ -5732,7 +5758,7 @@
         <v>2020</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -5751,7 +5777,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -5767,12 +5793,12 @@
         <v>2011</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31" t="n">
         <v>300</v>
@@ -5786,16 +5812,16 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H9" s="32" t="n">
         <v>25</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9" s="31" t="n">
         <v>100</v>
@@ -5807,12 +5833,12 @@
         <v>2009</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="31" t="n">
         <v>350</v>
@@ -5826,13 +5852,13 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="32" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J10" s="32" t="n">
         <v>-2</v>
@@ -5849,12 +5875,12 @@
         <v>2013</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="31" t="n">
         <v>300</v>
@@ -5868,13 +5894,13 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H11" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J11" s="32" t="n">
         <v>-6</v>
@@ -5891,12 +5917,12 @@
         <v>2013</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="31" t="n">
         <v>300</v>
@@ -5910,13 +5936,13 @@
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H12" s="32" t="n">
         <v>70</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J12" s="32" t="n">
         <v>-1</v>
@@ -5933,12 +5959,12 @@
         <v>2014</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" s="31" t="n">
         <v>400</v>
@@ -5952,13 +5978,13 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H13" s="32" t="n">
         <v>76</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J13" s="32" t="n">
         <v>-5</v>
@@ -5975,12 +6001,12 @@
         <v>2015</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="31" t="n">
         <v>610</v>
@@ -5996,13 +6022,13 @@
         <v>85</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="32" t="n">
         <v>35</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J14" s="32" t="n">
         <v>-1</v>
@@ -6019,12 +6045,12 @@
         <v>2015</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" s="31" t="n">
         <v>300</v>
@@ -6038,16 +6064,16 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H15" s="32" t="n">
         <v>28</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15" s="31" t="n">
         <v>148</v>
@@ -6061,12 +6087,12 @@
         <v>2015</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="31" t="n">
         <v>600</v>
@@ -6080,13 +6106,13 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H16" s="32" t="n">
         <v>23</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J16" s="32" t="n">
         <v>-2</v>
@@ -6101,12 +6127,12 @@
         <v>2015</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="31" t="n">
         <v>900</v>
@@ -6122,13 +6148,13 @@
         <v>80</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J17" s="32" t="n">
         <v>-1</v>
@@ -6141,12 +6167,12 @@
         <v>2015</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="31" t="n">
         <v>300</v>
@@ -6160,13 +6186,13 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H18" s="32" t="n">
         <v>27</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J18" s="32" t="n">
         <v>-2</v>
@@ -6183,12 +6209,12 @@
         <v>2016</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" s="31" t="n">
         <v>650</v>
@@ -6204,13 +6230,13 @@
         <v>100</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H19" s="32" t="n">
         <v>200</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J19" s="32" t="n">
         <v>-6</v>
@@ -6227,12 +6253,12 @@
         <v>2016</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="31" t="n">
         <v>640</v>
@@ -6248,7 +6274,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H20" s="32" t="n">
         <v>53500</v>
@@ -6269,12 +6295,12 @@
         <v>2017</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" s="31" t="n">
         <v>700</v>
@@ -6290,13 +6316,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H21" s="32" t="n">
         <v>40</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J21" s="32" t="n">
         <v>0</v>
@@ -6311,12 +6337,12 @@
         <v>2017</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" s="31" t="n">
         <v>700</v>
@@ -6332,13 +6358,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H22" s="32" t="n">
         <v>24</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J22" s="32" t="n">
         <v>0</v>
@@ -6353,12 +6379,12 @@
         <v>2017</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="31" t="n">
         <v>1000</v>
@@ -6374,13 +6400,13 @@
         <v>35</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J23" s="32" t="n">
         <v>0</v>
@@ -6393,12 +6419,12 @@
         <v>2017</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="31" t="n">
         <v>1000</v>
@@ -6414,13 +6440,13 @@
         <v>38</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J24" s="32" t="n">
         <v>0</v>
@@ -6433,12 +6459,12 @@
         <v>2017</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" s="31" t="n">
         <v>1000</v>
@@ -6454,13 +6480,13 @@
         <v>47</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J25" s="32" t="n">
         <v>0</v>
@@ -6473,12 +6499,12 @@
         <v>2017</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" s="31" t="n">
         <v>1000</v>
@@ -6494,13 +6520,13 @@
         <v>41</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J26" s="32" t="n">
         <v>0</v>
@@ -6513,12 +6539,12 @@
         <v>2017</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B27" s="31" t="n">
         <v>875</v>
@@ -6534,13 +6560,13 @@
         <v>43</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="32" t="n">
         <v>22</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J27" s="32" t="n">
         <v>0</v>
@@ -6555,12 +6581,12 @@
         <v>2017</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="31" t="n">
         <v>810</v>
@@ -6585,12 +6611,12 @@
         <v>2017</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="31" t="n">
         <v>400</v>
@@ -6604,13 +6630,13 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J29" s="32" t="n">
         <v>-40</v>
@@ -6625,12 +6651,12 @@
         <v>2018</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B30" s="31" t="n">
         <v>300</v>
@@ -6644,13 +6670,13 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H30" s="32" t="n">
         <v>48</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J30" s="32" t="n">
         <v>0</v>
@@ -6663,12 +6689,12 @@
         <v>2018</v>
       </c>
       <c r="P30" s="33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31" s="31" t="n">
         <v>790</v>
@@ -6684,13 +6710,13 @@
         <v>30</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H31" s="32" t="n">
         <v>2000</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J31" s="32" t="n">
         <v>-50</v>
@@ -6705,12 +6731,12 @@
         <v>2018</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" s="31" t="n">
         <v>350</v>
@@ -6726,20 +6752,20 @@
         <v>20</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H32" s="32" t="n">
         <v>2170</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J32" s="32" t="n">
         <v>-15</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -6747,12 +6773,12 @@
         <v>2018</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B33" s="31" t="n">
         <v>300</v>
@@ -6766,16 +6792,16 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H33" s="32" t="n">
         <v>56</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K33" s="31" t="n">
         <v>97</v>
@@ -6789,12 +6815,12 @@
         <v>2019</v>
       </c>
       <c r="P33" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B34" s="31" t="n">
         <v>420</v>
@@ -6810,13 +6836,13 @@
         <v>76</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H34" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J34" s="32" t="n">
         <v>0</v>
@@ -6829,12 +6855,12 @@
         <v>2019</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" s="31" t="n">
         <v>400</v>
@@ -6850,13 +6876,13 @@
         <v>84</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H35" s="32" t="n">
         <v>50</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J35" s="32" t="n">
         <v>0</v>
@@ -6873,12 +6899,12 @@
         <v>2019</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" s="31" t="n">
         <v>810</v>
@@ -6894,13 +6920,13 @@
         <v>50</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J36" s="32" t="n">
         <v>0</v>
@@ -6913,12 +6939,12 @@
         <v>2019</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" s="31" t="n">
         <v>810</v>
@@ -6934,13 +6960,13 @@
         <v>50</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J37" s="32" t="n">
         <v>0</v>
@@ -6953,12 +6979,12 @@
         <v>2019</v>
       </c>
       <c r="P37" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B38" s="31" t="n">
         <v>300</v>
@@ -6972,13 +6998,13 @@
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J38" s="32" t="n">
         <v>-2</v>
@@ -6987,7 +7013,7 @@
         <v>173</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -6995,12 +7021,12 @@
         <v>2020</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B39" s="31" t="n">
         <v>645</v>
@@ -7016,13 +7042,13 @@
         <v>50</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J39" s="32" t="n">
         <v>0</v>
@@ -7031,7 +7057,7 @@
         <v>103</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
@@ -7039,12 +7065,12 @@
         <v>2020</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" s="31" t="n">
         <v>860</v>
@@ -7060,16 +7086,16 @@
         <v>50</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H40" s="32" t="n">
         <v>61</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K40" s="31"/>
       <c r="L40" s="31"/>
@@ -7079,12 +7105,12 @@
         <v>2020</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" s="31" t="n">
         <v>860</v>
@@ -7100,12 +7126,12 @@
         <v>40</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="31"/>
@@ -7115,12 +7141,12 @@
         <v>2020</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="31" t="n">
         <v>860</v>
@@ -7136,12 +7162,12 @@
         <v>50</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K42" s="31"/>
       <c r="L42" s="31"/>
@@ -7151,12 +7177,12 @@
         <v>2020</v>
       </c>
       <c r="P42" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="31" t="n">
         <v>750</v>
@@ -7172,13 +7198,13 @@
         <v>120</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H43" s="32" t="n">
         <v>53</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J43" s="32" t="n">
         <v>0</v>
@@ -7193,12 +7219,12 @@
         <v>2020</v>
       </c>
       <c r="P43" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B44" s="31" t="n">
         <v>790</v>
@@ -7214,13 +7240,13 @@
         <v>37</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H44" s="32" t="n">
         <v>10</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J44" s="32" t="n">
         <v>0</v>
@@ -7235,12 +7261,12 @@
         <v>2020</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B45" s="31" t="n">
         <v>1020</v>
@@ -7256,13 +7282,13 @@
         <v>58</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J45" s="32" t="n">
         <v>0</v>
@@ -7277,12 +7303,12 @@
         <v>2020</v>
       </c>
       <c r="P45" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B46" s="31" t="n">
         <v>300</v>
@@ -7296,16 +7322,16 @@
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
       <c r="G46" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K46" s="31" t="n">
         <v>123</v>
@@ -7319,12 +7345,12 @@
         <v>2021</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" s="31" t="n">
         <v>830</v>
@@ -7340,7 +7366,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H47" s="32" t="n">
         <v>15300</v>
@@ -7361,12 +7387,12 @@
         <v>2021</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B48" s="31" t="n">
         <v>650</v>
@@ -7382,13 +7408,13 @@
         <v>60</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H48" s="32" t="n">
         <v>18</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J48" s="32" t="n">
         <v>0</v>
@@ -7403,12 +7429,12 @@
         <v>2021</v>
       </c>
       <c r="P48" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" s="31" t="n">
         <v>650</v>
@@ -7424,13 +7450,13 @@
         <v>45</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H49" s="32" t="n">
         <v>6</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J49" s="32" t="n">
         <v>0</v>
@@ -7443,12 +7469,12 @@
         <v>2021</v>
       </c>
       <c r="P49" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B50" s="31" t="n">
         <v>650</v>
@@ -7464,13 +7490,13 @@
         <v>35</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J50" s="32" t="n">
         <v>0</v>
@@ -7483,12 +7509,12 @@
         <v>2021</v>
       </c>
       <c r="P50" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B51" s="31" t="n">
         <v>650</v>
@@ -7504,13 +7530,13 @@
         <v>20</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J51" s="32" t="n">
         <v>0</v>
@@ -7523,12 +7549,12 @@
         <v>2021</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B52" s="31" t="n">
         <v>826</v>
@@ -7544,20 +7570,20 @@
         <v>17</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H52" s="32" t="n">
         <v>75</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J52" s="32" t="n">
         <v>-10</v>
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
@@ -7565,7 +7591,7 @@
         <v>2021</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8000,13 +8026,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,13 +8082,13 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38"/>
       <c r="B8" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38"/>
       <c r="B9" s="40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,7 +8106,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8092,7 +8118,7 @@
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="38"/>
       <c r="B14" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,277 +8130,277 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="38"/>
       <c r="B22" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="38"/>
       <c r="B23" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38"/>
       <c r="B24" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="38"/>
       <c r="B25" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="38"/>
       <c r="B26" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
       <c r="B28" s="38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="38"/>
       <c r="B29" s="38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38"/>
       <c r="B30" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="38"/>
       <c r="B31" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="38"/>
       <c r="B33" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38"/>
       <c r="B34" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="38"/>
       <c r="B35" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38"/>
       <c r="B36" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="38"/>
       <c r="B37" s="38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="38"/>
       <c r="B38" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38"/>
       <c r="B39" s="38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
       <c r="B40" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
       <c r="B41" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
       <c r="B42" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="38"/>
       <c r="B43" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="38"/>
       <c r="B44" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="38"/>
       <c r="B45" s="38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="38"/>
       <c r="B46" s="38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="38"/>
       <c r="B47" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="38"/>
       <c r="B48" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="38"/>
       <c r="B49" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="38"/>
       <c r="B50" s="38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="38"/>
       <c r="B51" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="38"/>
       <c r="B52" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38"/>
       <c r="B53" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="38"/>
       <c r="B54" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="38"/>
       <c r="B55" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="38"/>
       <c r="B56" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="38"/>
       <c r="B57" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="38"/>
       <c r="B58" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="38"/>
       <c r="B59" s="38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="38"/>
       <c r="B60" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="38"/>
       <c r="B61" s="41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="283">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t xml:space="preserve">Li A, Wu YF, Wang C et al. An inversely designed integrated spectrometer with reconfigurable performance and ultra-low power consumption. Opto-Electron Adv 7, 240099 (2024). doi: 10.29026/oea.2024.240099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W03/NiOx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tian, M., Liu, B., Lu, Z. et al. Miniaturized on-chip spectrometer enabled by electrochromic modulation. Light Sci Appl 13, 278 (2024). https://doi.org/10.1038/s41377-024-01638-4</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -995,7 +1004,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1063,6 +1072,12 @@
       <name val="Times new roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1228,7 +1243,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1317,51 +1332,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1369,31 +1388,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1478,7 +1497,7 @@
   <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O53" activeCellId="0" sqref="O53"/>
+      <selection pane="topLeft" activeCell="O54" activeCellId="0" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3517,24 +3536,44 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15" t="str">
+      <c r="A54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="14" t="n">
+        <v>400</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>800</v>
+      </c>
+      <c r="E54" s="14" t="n">
+        <v>400</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>600</v>
+      </c>
+      <c r="G54" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H54" s="15" t="n">
         <f aca="false">IF(AND(E54&lt;&gt;0,G54&lt;&gt;0),E54/G54,"")</f>
-        <v/>
+        <v>40</v>
       </c>
       <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="J54" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="19"/>
+      <c r="N54" s="14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14"/>
@@ -4396,1039 +4435,1039 @@
       <c r="O95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="22" t="str">
+      <c r="E96" s="23" t="str">
         <f aca="false">IF(AND(C96&lt;&gt;0,D96&lt;&gt;0),D96-C96,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="22" t="str">
+      <c r="E97" s="23" t="str">
         <f aca="false">IF(AND(C97&lt;&gt;0,D97&lt;&gt;0),D97-C97,"")</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="22" t="str">
+      <c r="E98" s="23" t="str">
         <f aca="false">IF(AND(C98&lt;&gt;0,D98&lt;&gt;0),D98-C98,"")</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="22" t="str">
+      <c r="E99" s="23" t="str">
         <f aca="false">IF(AND(C99&lt;&gt;0,D99&lt;&gt;0),D99-C99,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="22" t="str">
+      <c r="E100" s="23" t="str">
         <f aca="false">IF(AND(C100&lt;&gt;0,D100&lt;&gt;0),D100-C100,"")</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="22" t="str">
+      <c r="E101" s="23" t="str">
         <f aca="false">IF(AND(C101&lt;&gt;0,D101&lt;&gt;0),D101-C101,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="22" t="str">
+      <c r="E102" s="23" t="str">
         <f aca="false">IF(AND(C102&lt;&gt;0,D102&lt;&gt;0),D102-C102,"")</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="22" t="str">
+      <c r="E103" s="23" t="str">
         <f aca="false">IF(AND(C103&lt;&gt;0,D103&lt;&gt;0),D103-C103,"")</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="22" t="str">
+      <c r="E104" s="23" t="str">
         <f aca="false">IF(AND(C104&lt;&gt;0,D104&lt;&gt;0),D104-C104,"")</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="22" t="str">
+      <c r="E105" s="23" t="str">
         <f aca="false">IF(AND(C105&lt;&gt;0,D105&lt;&gt;0),D105-C105,"")</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="22" t="str">
+      <c r="E106" s="23" t="str">
         <f aca="false">IF(AND(C106&lt;&gt;0,D106&lt;&gt;0),D106-C106,"")</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="22" t="str">
+      <c r="E107" s="23" t="str">
         <f aca="false">IF(AND(C107&lt;&gt;0,D107&lt;&gt;0),D107-C107,"")</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="22" t="str">
+      <c r="E108" s="23" t="str">
         <f aca="false">IF(AND(C108&lt;&gt;0,D108&lt;&gt;0),D108-C108,"")</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="22" t="str">
+      <c r="E109" s="23" t="str">
         <f aca="false">IF(AND(C109&lt;&gt;0,D109&lt;&gt;0),D109-C109,"")</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="22" t="str">
+      <c r="E110" s="23" t="str">
         <f aca="false">IF(AND(C110&lt;&gt;0,D110&lt;&gt;0),D110-C110,"")</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="22" t="str">
+      <c r="E111" s="23" t="str">
         <f aca="false">IF(AND(C111&lt;&gt;0,D111&lt;&gt;0),D111-C111,"")</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="22" t="str">
+      <c r="E112" s="23" t="str">
         <f aca="false">IF(AND(C112&lt;&gt;0,D112&lt;&gt;0),D112-C112,"")</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="22" t="str">
+      <c r="E113" s="23" t="str">
         <f aca="false">IF(AND(C113&lt;&gt;0,D113&lt;&gt;0),D113-C113,"")</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="22" t="str">
+      <c r="E114" s="23" t="str">
         <f aca="false">IF(AND(C114&lt;&gt;0,D114&lt;&gt;0),D114-C114,"")</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="22" t="str">
+      <c r="E115" s="23" t="str">
         <f aca="false">IF(AND(C115&lt;&gt;0,D115&lt;&gt;0),D115-C115,"")</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="22" t="str">
+      <c r="E116" s="23" t="str">
         <f aca="false">IF(AND(C116&lt;&gt;0,D116&lt;&gt;0),D116-C116,"")</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="22" t="str">
+      <c r="E117" s="23" t="str">
         <f aca="false">IF(AND(C117&lt;&gt;0,D117&lt;&gt;0),D117-C117,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="22" t="str">
+      <c r="E118" s="23" t="str">
         <f aca="false">IF(AND(C118&lt;&gt;0,D118&lt;&gt;0),D118-C118,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="22" t="str">
+      <c r="E119" s="23" t="str">
         <f aca="false">IF(AND(C119&lt;&gt;0,D119&lt;&gt;0),D119-C119,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="22" t="str">
+      <c r="E120" s="23" t="str">
         <f aca="false">IF(AND(C120&lt;&gt;0,D120&lt;&gt;0),D120-C120,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="22" t="str">
+      <c r="E121" s="23" t="str">
         <f aca="false">IF(AND(C121&lt;&gt;0,D121&lt;&gt;0),D121-C121,"")</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="22" t="str">
+      <c r="E122" s="23" t="str">
         <f aca="false">IF(AND(C122&lt;&gt;0,D122&lt;&gt;0),D122-C122,"")</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="22" t="str">
+      <c r="E123" s="23" t="str">
         <f aca="false">IF(AND(C123&lt;&gt;0,D123&lt;&gt;0),D123-C123,"")</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="22" t="str">
+      <c r="E124" s="23" t="str">
         <f aca="false">IF(AND(C124&lt;&gt;0,D124&lt;&gt;0),D124-C124,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="22" t="str">
+      <c r="E125" s="23" t="str">
         <f aca="false">IF(AND(C125&lt;&gt;0,D125&lt;&gt;0),D125-C125,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="22" t="str">
+      <c r="E126" s="23" t="str">
         <f aca="false">IF(AND(C126&lt;&gt;0,D126&lt;&gt;0),D126-C126,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="22" t="str">
+      <c r="E127" s="23" t="str">
         <f aca="false">IF(AND(C127&lt;&gt;0,D127&lt;&gt;0),D127-C127,"")</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="22" t="str">
+      <c r="E128" s="23" t="str">
         <f aca="false">IF(AND(C128&lt;&gt;0,D128&lt;&gt;0),D128-C128,"")</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="22" t="str">
+      <c r="E129" s="23" t="str">
         <f aca="false">IF(AND(C129&lt;&gt;0,D129&lt;&gt;0),D129-C129,"")</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="22" t="str">
+      <c r="E130" s="23" t="str">
         <f aca="false">IF(AND(C130&lt;&gt;0,D130&lt;&gt;0),D130-C130,"")</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="22" t="str">
+      <c r="E131" s="23" t="str">
         <f aca="false">IF(AND(C131&lt;&gt;0,D131&lt;&gt;0),D131-C131,"")</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="22" t="str">
+      <c r="E132" s="23" t="str">
         <f aca="false">IF(AND(C132&lt;&gt;0,D132&lt;&gt;0),D132-C132,"")</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="22" t="str">
+      <c r="E133" s="23" t="str">
         <f aca="false">IF(AND(C133&lt;&gt;0,D133&lt;&gt;0),D133-C133,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="22" t="str">
+      <c r="E134" s="23" t="str">
         <f aca="false">IF(AND(C134&lt;&gt;0,D134&lt;&gt;0),D134-C134,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="22" t="str">
+      <c r="E135" s="23" t="str">
         <f aca="false">IF(AND(C135&lt;&gt;0,D135&lt;&gt;0),D135-C135,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="22" t="str">
+      <c r="E136" s="23" t="str">
         <f aca="false">IF(AND(C136&lt;&gt;0,D136&lt;&gt;0),D136-C136,"")</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="22" t="str">
+      <c r="E137" s="23" t="str">
         <f aca="false">IF(AND(C137&lt;&gt;0,D137&lt;&gt;0),D137-C137,"")</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="22" t="str">
+      <c r="E138" s="23" t="str">
         <f aca="false">IF(AND(C138&lt;&gt;0,D138&lt;&gt;0),D138-C138,"")</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="22" t="str">
+      <c r="E139" s="23" t="str">
         <f aca="false">IF(AND(C139&lt;&gt;0,D139&lt;&gt;0),D139-C139,"")</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="22" t="str">
+      <c r="E140" s="23" t="str">
         <f aca="false">IF(AND(C140&lt;&gt;0,D140&lt;&gt;0),D140-C140,"")</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="22" t="str">
+      <c r="E141" s="23" t="str">
         <f aca="false">IF(AND(C141&lt;&gt;0,D141&lt;&gt;0),D141-C141,"")</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="22" t="str">
+      <c r="E142" s="23" t="str">
         <f aca="false">IF(AND(C142&lt;&gt;0,D142&lt;&gt;0),D142-C142,"")</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="22" t="str">
+      <c r="E143" s="23" t="str">
         <f aca="false">IF(AND(C143&lt;&gt;0,D143&lt;&gt;0),D143-C143,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="22" t="str">
+      <c r="E144" s="23" t="str">
         <f aca="false">IF(AND(C144&lt;&gt;0,D144&lt;&gt;0),D144-C144,"")</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="22" t="str">
+      <c r="E145" s="23" t="str">
         <f aca="false">IF(AND(C145&lt;&gt;0,D145&lt;&gt;0),D145-C145,"")</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="22" t="str">
+      <c r="E146" s="23" t="str">
         <f aca="false">IF(AND(C146&lt;&gt;0,D146&lt;&gt;0),D146-C146,"")</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="22" t="str">
+      <c r="E147" s="23" t="str">
         <f aca="false">IF(AND(C147&lt;&gt;0,D147&lt;&gt;0),D147-C147,"")</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="22" t="str">
+      <c r="E148" s="23" t="str">
         <f aca="false">IF(AND(C148&lt;&gt;0,D148&lt;&gt;0),D148-C148,"")</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="22" t="str">
+      <c r="E149" s="23" t="str">
         <f aca="false">IF(AND(C149&lt;&gt;0,D149&lt;&gt;0),D149-C149,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="22" t="str">
+      <c r="E150" s="23" t="str">
         <f aca="false">IF(AND(C150&lt;&gt;0,D150&lt;&gt;0),D150-C150,"")</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="22" t="str">
+      <c r="E151" s="23" t="str">
         <f aca="false">IF(AND(C151&lt;&gt;0,D151&lt;&gt;0),D151-C151,"")</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="22" t="str">
+      <c r="E152" s="23" t="str">
         <f aca="false">IF(AND(C152&lt;&gt;0,D152&lt;&gt;0),D152-C152,"")</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="22" t="str">
+      <c r="E153" s="23" t="str">
         <f aca="false">IF(AND(C153&lt;&gt;0,D153&lt;&gt;0),D153-C153,"")</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="22" t="str">
+      <c r="E154" s="23" t="str">
         <f aca="false">IF(AND(C154&lt;&gt;0,D154&lt;&gt;0),D154-C154,"")</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="22" t="str">
+      <c r="E155" s="23" t="str">
         <f aca="false">IF(AND(C155&lt;&gt;0,D155&lt;&gt;0),D155-C155,"")</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="22" t="str">
+      <c r="E156" s="23" t="str">
         <f aca="false">IF(AND(C156&lt;&gt;0,D156&lt;&gt;0),D156-C156,"")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="22" t="str">
+      <c r="E157" s="23" t="str">
         <f aca="false">IF(AND(C157&lt;&gt;0,D157&lt;&gt;0),D157-C157,"")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="22" t="str">
+      <c r="E158" s="23" t="str">
         <f aca="false">IF(AND(C158&lt;&gt;0,D158&lt;&gt;0),D158-C158,"")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="22" t="str">
+      <c r="E159" s="23" t="str">
         <f aca="false">IF(AND(C159&lt;&gt;0,D159&lt;&gt;0),D159-C159,"")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="22" t="str">
+      <c r="E160" s="23" t="str">
         <f aca="false">IF(AND(C160&lt;&gt;0,D160&lt;&gt;0),D160-C160,"")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="22" t="str">
+      <c r="E161" s="23" t="str">
         <f aca="false">IF(AND(C161&lt;&gt;0,D161&lt;&gt;0),D161-C161,"")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="22" t="str">
+      <c r="E162" s="23" t="str">
         <f aca="false">IF(AND(C162&lt;&gt;0,D162&lt;&gt;0),D162-C162,"")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="22" t="str">
+      <c r="E163" s="23" t="str">
         <f aca="false">IF(AND(C163&lt;&gt;0,D163&lt;&gt;0),D163-C163,"")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="22" t="str">
+      <c r="E164" s="23" t="str">
         <f aca="false">IF(AND(C164&lt;&gt;0,D164&lt;&gt;0),D164-C164,"")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="22" t="str">
+      <c r="E165" s="23" t="str">
         <f aca="false">IF(AND(C165&lt;&gt;0,D165&lt;&gt;0),D165-C165,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="22" t="str">
+      <c r="E166" s="23" t="str">
         <f aca="false">IF(AND(C166&lt;&gt;0,D166&lt;&gt;0),D166-C166,"")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="22" t="str">
+      <c r="E167" s="23" t="str">
         <f aca="false">IF(AND(C167&lt;&gt;0,D167&lt;&gt;0),D167-C167,"")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="22" t="str">
+      <c r="E168" s="23" t="str">
         <f aca="false">IF(AND(C168&lt;&gt;0,D168&lt;&gt;0),D168-C168,"")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="22" t="str">
+      <c r="E169" s="23" t="str">
         <f aca="false">IF(AND(C169&lt;&gt;0,D169&lt;&gt;0),D169-C169,"")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="22" t="str">
+      <c r="E170" s="23" t="str">
         <f aca="false">IF(AND(C170&lt;&gt;0,D170&lt;&gt;0),D170-C170,"")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="22" t="str">
+      <c r="E171" s="23" t="str">
         <f aca="false">IF(AND(C171&lt;&gt;0,D171&lt;&gt;0),D171-C171,"")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="22" t="str">
+      <c r="E172" s="23" t="str">
         <f aca="false">IF(AND(C172&lt;&gt;0,D172&lt;&gt;0),D172-C172,"")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="22" t="str">
+      <c r="E173" s="23" t="str">
         <f aca="false">IF(AND(C173&lt;&gt;0,D173&lt;&gt;0),D173-C173,"")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="22" t="str">
+      <c r="E174" s="23" t="str">
         <f aca="false">IF(AND(C174&lt;&gt;0,D174&lt;&gt;0),D174-C174,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="22" t="str">
+      <c r="E175" s="23" t="str">
         <f aca="false">IF(AND(C175&lt;&gt;0,D175&lt;&gt;0),D175-C175,"")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="22" t="str">
+      <c r="E176" s="23" t="str">
         <f aca="false">IF(AND(C176&lt;&gt;0,D176&lt;&gt;0),D176-C176,"")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="22" t="str">
+      <c r="E177" s="23" t="str">
         <f aca="false">IF(AND(C177&lt;&gt;0,D177&lt;&gt;0),D177-C177,"")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="22" t="str">
+      <c r="E178" s="23" t="str">
         <f aca="false">IF(AND(C178&lt;&gt;0,D178&lt;&gt;0),D178-C178,"")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="22" t="str">
+      <c r="E179" s="23" t="str">
         <f aca="false">IF(AND(C179&lt;&gt;0,D179&lt;&gt;0),D179-C179,"")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="22" t="str">
+      <c r="E180" s="23" t="str">
         <f aca="false">IF(AND(C180&lt;&gt;0,D180&lt;&gt;0),D180-C180,"")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="22" t="str">
+      <c r="E181" s="23" t="str">
         <f aca="false">IF(AND(C181&lt;&gt;0,D181&lt;&gt;0),D181-C181,"")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="22" t="str">
+      <c r="E182" s="23" t="str">
         <f aca="false">IF(AND(C182&lt;&gt;0,D182&lt;&gt;0),D182-C182,"")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="22" t="str">
+      <c r="E183" s="23" t="str">
         <f aca="false">IF(AND(C183&lt;&gt;0,D183&lt;&gt;0),D183-C183,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="22" t="str">
+      <c r="E184" s="23" t="str">
         <f aca="false">IF(AND(C184&lt;&gt;0,D184&lt;&gt;0),D184-C184,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="22" t="str">
+      <c r="E185" s="23" t="str">
         <f aca="false">IF(AND(C185&lt;&gt;0,D185&lt;&gt;0),D185-C185,"")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="22" t="str">
+      <c r="E186" s="23" t="str">
         <f aca="false">IF(AND(C186&lt;&gt;0,D186&lt;&gt;0),D186-C186,"")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="22" t="str">
+      <c r="E187" s="23" t="str">
         <f aca="false">IF(AND(C187&lt;&gt;0,D187&lt;&gt;0),D187-C187,"")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="22" t="str">
+      <c r="E188" s="23" t="str">
         <f aca="false">IF(AND(C188&lt;&gt;0,D188&lt;&gt;0),D188-C188,"")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="22" t="str">
+      <c r="E189" s="23" t="str">
         <f aca="false">IF(AND(C189&lt;&gt;0,D189&lt;&gt;0),D189-C189,"")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="22" t="str">
+      <c r="E190" s="23" t="str">
         <f aca="false">IF(AND(C190&lt;&gt;0,D190&lt;&gt;0),D190-C190,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="22" t="str">
+      <c r="E191" s="23" t="str">
         <f aca="false">IF(AND(C191&lt;&gt;0,D191&lt;&gt;0),D191-C191,"")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="22" t="str">
+      <c r="E192" s="23" t="str">
         <f aca="false">IF(AND(C192&lt;&gt;0,D192&lt;&gt;0),D192-C192,"")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="22" t="str">
+      <c r="E193" s="23" t="str">
         <f aca="false">IF(AND(C193&lt;&gt;0,D193&lt;&gt;0),D193-C193,"")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="22" t="str">
+      <c r="E194" s="23" t="str">
         <f aca="false">IF(AND(C194&lt;&gt;0,D194&lt;&gt;0),D194-C194,"")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="22" t="str">
+      <c r="E195" s="23" t="str">
         <f aca="false">IF(AND(C195&lt;&gt;0,D195&lt;&gt;0),D195-C195,"")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="22" t="str">
+      <c r="E196" s="23" t="str">
         <f aca="false">IF(AND(C196&lt;&gt;0,D196&lt;&gt;0),D196-C196,"")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="22" t="str">
+      <c r="E197" s="23" t="str">
         <f aca="false">IF(AND(C197&lt;&gt;0,D197&lt;&gt;0),D197-C197,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="22" t="str">
+      <c r="E198" s="23" t="str">
         <f aca="false">IF(AND(C198&lt;&gt;0,D198&lt;&gt;0),D198-C198,"")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="22" t="str">
+      <c r="E199" s="23" t="str">
         <f aca="false">IF(AND(C199&lt;&gt;0,D199&lt;&gt;0),D199-C199,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="22" t="str">
+      <c r="E200" s="23" t="str">
         <f aca="false">IF(AND(C200&lt;&gt;0,D200&lt;&gt;0),D200-C200,"")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="22" t="str">
+      <c r="E201" s="23" t="str">
         <f aca="false">IF(AND(C201&lt;&gt;0,D201&lt;&gt;0),D201-C201,"")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="22" t="str">
+      <c r="E202" s="23" t="str">
         <f aca="false">IF(AND(C202&lt;&gt;0,D202&lt;&gt;0),D202-C202,"")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="22" t="str">
+      <c r="E203" s="23" t="str">
         <f aca="false">IF(AND(C203&lt;&gt;0,D203&lt;&gt;0),D203-C203,"")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="22" t="str">
+      <c r="E204" s="23" t="str">
         <f aca="false">IF(AND(C204&lt;&gt;0,D204&lt;&gt;0),D204-C204,"")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="22" t="str">
+      <c r="E205" s="23" t="str">
         <f aca="false">IF(AND(C205&lt;&gt;0,D205&lt;&gt;0),D205-C205,"")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="22" t="str">
+      <c r="E206" s="23" t="str">
         <f aca="false">IF(AND(C206&lt;&gt;0,D206&lt;&gt;0),D206-C206,"")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="22" t="str">
+      <c r="E207" s="23" t="str">
         <f aca="false">IF(AND(C207&lt;&gt;0,D207&lt;&gt;0),D207-C207,"")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="22" t="str">
+      <c r="E208" s="23" t="str">
         <f aca="false">IF(AND(C208&lt;&gt;0,D208&lt;&gt;0),D208-C208,"")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="22" t="str">
+      <c r="E209" s="23" t="str">
         <f aca="false">IF(AND(C209&lt;&gt;0,D209&lt;&gt;0),D209-C209,"")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="22" t="str">
+      <c r="E210" s="23" t="str">
         <f aca="false">IF(AND(C210&lt;&gt;0,D210&lt;&gt;0),D210-C210,"")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="22" t="str">
+      <c r="E211" s="23" t="str">
         <f aca="false">IF(AND(C211&lt;&gt;0,D211&lt;&gt;0),D211-C211,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="22" t="str">
+      <c r="E212" s="23" t="str">
         <f aca="false">IF(AND(C212&lt;&gt;0,D212&lt;&gt;0),D212-C212,"")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="22" t="str">
+      <c r="E213" s="23" t="str">
         <f aca="false">IF(AND(C213&lt;&gt;0,D213&lt;&gt;0),D213-C213,"")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="22" t="str">
+      <c r="E214" s="23" t="str">
         <f aca="false">IF(AND(C214&lt;&gt;0,D214&lt;&gt;0),D214-C214,"")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="22" t="str">
+      <c r="E215" s="23" t="str">
         <f aca="false">IF(AND(C215&lt;&gt;0,D215&lt;&gt;0),D215-C215,"")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="22" t="str">
+      <c r="E216" s="23" t="str">
         <f aca="false">IF(AND(C216&lt;&gt;0,D216&lt;&gt;0),D216-C216,"")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="22" t="str">
+      <c r="E217" s="23" t="str">
         <f aca="false">IF(AND(C217&lt;&gt;0,D217&lt;&gt;0),D217-C217,"")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="22" t="str">
+      <c r="E218" s="23" t="str">
         <f aca="false">IF(AND(C218&lt;&gt;0,D218&lt;&gt;0),D218-C218,"")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="22" t="str">
+      <c r="E219" s="23" t="str">
         <f aca="false">IF(AND(C219&lt;&gt;0,D219&lt;&gt;0),D219-C219,"")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="22" t="str">
+      <c r="E220" s="23" t="str">
         <f aca="false">IF(AND(C220&lt;&gt;0,D220&lt;&gt;0),D220-C220,"")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="22" t="str">
+      <c r="E221" s="23" t="str">
         <f aca="false">IF(AND(C221&lt;&gt;0,D221&lt;&gt;0),D221-C221,"")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="22" t="str">
+      <c r="E222" s="23" t="str">
         <f aca="false">IF(AND(C222&lt;&gt;0,D222&lt;&gt;0),D222-C222,"")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="22" t="str">
+      <c r="E223" s="23" t="str">
         <f aca="false">IF(AND(C223&lt;&gt;0,D223&lt;&gt;0),D223-C223,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="22" t="str">
+      <c r="E224" s="23" t="str">
         <f aca="false">IF(AND(C224&lt;&gt;0,D224&lt;&gt;0),D224-C224,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="22" t="str">
+      <c r="E225" s="23" t="str">
         <f aca="false">IF(AND(C225&lt;&gt;0,D225&lt;&gt;0),D225-C225,"")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="22" t="str">
+      <c r="E226" s="23" t="str">
         <f aca="false">IF(AND(C226&lt;&gt;0,D226&lt;&gt;0),D226-C226,"")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="22" t="str">
+      <c r="E227" s="23" t="str">
         <f aca="false">IF(AND(C227&lt;&gt;0,D227&lt;&gt;0),D227-C227,"")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="22" t="str">
+      <c r="E228" s="23" t="str">
         <f aca="false">IF(AND(C228&lt;&gt;0,D228&lt;&gt;0),D228-C228,"")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="22" t="str">
+      <c r="E229" s="23" t="str">
         <f aca="false">IF(AND(C229&lt;&gt;0,D229&lt;&gt;0),D229-C229,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="22" t="str">
+      <c r="E230" s="23" t="str">
         <f aca="false">IF(AND(C230&lt;&gt;0,D230&lt;&gt;0),D230-C230,"")</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="22" t="str">
+      <c r="E231" s="23" t="str">
         <f aca="false">IF(AND(C231&lt;&gt;0,D231&lt;&gt;0),D231-C231,"")</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="22" t="str">
+      <c r="E232" s="23" t="str">
         <f aca="false">IF(AND(C232&lt;&gt;0,D232&lt;&gt;0),D232-C232,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="22" t="str">
+      <c r="E233" s="23" t="str">
         <f aca="false">IF(AND(C233&lt;&gt;0,D233&lt;&gt;0),D233-C233,"")</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="22" t="str">
+      <c r="E234" s="23" t="str">
         <f aca="false">IF(AND(C234&lt;&gt;0,D234&lt;&gt;0),D234-C234,"")</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="22" t="str">
+      <c r="E235" s="23" t="str">
         <f aca="false">IF(AND(C235&lt;&gt;0,D235&lt;&gt;0),D235-C235,"")</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="22" t="str">
+      <c r="E236" s="23" t="str">
         <f aca="false">IF(AND(C236&lt;&gt;0,D236&lt;&gt;0),D236-C236,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="22" t="str">
+      <c r="E237" s="23" t="str">
         <f aca="false">IF(AND(C237&lt;&gt;0,D237&lt;&gt;0),D237-C237,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="22" t="str">
+      <c r="E238" s="23" t="str">
         <f aca="false">IF(AND(C238&lt;&gt;0,D238&lt;&gt;0),D238-C238,"")</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="22" t="str">
+      <c r="E239" s="23" t="str">
         <f aca="false">IF(AND(C239&lt;&gt;0,D239&lt;&gt;0),D239-C239,"")</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="22" t="str">
+      <c r="E240" s="23" t="str">
         <f aca="false">IF(AND(C240&lt;&gt;0,D240&lt;&gt;0),D240-C240,"")</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="22" t="str">
+      <c r="E241" s="23" t="str">
         <f aca="false">IF(AND(C241&lt;&gt;0,D241&lt;&gt;0),D241-C241,"")</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="22" t="str">
+      <c r="E242" s="23" t="str">
         <f aca="false">IF(AND(C242&lt;&gt;0,D242&lt;&gt;0),D242-C242,"")</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="22" t="str">
+      <c r="E243" s="23" t="str">
         <f aca="false">IF(AND(C243&lt;&gt;0,D243&lt;&gt;0),D243-C243,"")</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="22" t="str">
+      <c r="E244" s="23" t="str">
         <f aca="false">IF(AND(C244&lt;&gt;0,D244&lt;&gt;0),D244-C244,"")</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="22" t="str">
+      <c r="E245" s="23" t="str">
         <f aca="false">IF(AND(C245&lt;&gt;0,D245&lt;&gt;0),D245-C245,"")</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="22" t="str">
+      <c r="E246" s="23" t="str">
         <f aca="false">IF(AND(C246&lt;&gt;0,D246&lt;&gt;0),D246-C246,"")</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="22" t="str">
+      <c r="E247" s="23" t="str">
         <f aca="false">IF(AND(C247&lt;&gt;0,D247&lt;&gt;0),D247-C247,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="22" t="str">
+      <c r="E248" s="23" t="str">
         <f aca="false">IF(AND(C248&lt;&gt;0,D248&lt;&gt;0),D248-C248,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="22" t="str">
+      <c r="E249" s="23" t="str">
         <f aca="false">IF(AND(C249&lt;&gt;0,D249&lt;&gt;0),D249-C249,"")</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="22" t="str">
+      <c r="E250" s="23" t="str">
         <f aca="false">IF(AND(C250&lt;&gt;0,D250&lt;&gt;0),D250-C250,"")</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="22" t="str">
+      <c r="E251" s="23" t="str">
         <f aca="false">IF(AND(C251&lt;&gt;0,D251&lt;&gt;0),D251-C251,"")</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="22" t="str">
+      <c r="E252" s="23" t="str">
         <f aca="false">IF(AND(C252&lt;&gt;0,D252&lt;&gt;0),D252-C252,"")</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="22" t="str">
+      <c r="E253" s="23" t="str">
         <f aca="false">IF(AND(C253&lt;&gt;0,D253&lt;&gt;0),D253-C253,"")</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="22" t="str">
+      <c r="E254" s="23" t="str">
         <f aca="false">IF(AND(C254&lt;&gt;0,D254&lt;&gt;0),D254-C254,"")</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="22" t="str">
+      <c r="E255" s="23" t="str">
         <f aca="false">IF(AND(C255&lt;&gt;0,D255&lt;&gt;0),D255-C255,"")</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="22" t="str">
+      <c r="E256" s="23" t="str">
         <f aca="false">IF(AND(C256&lt;&gt;0,D256&lt;&gt;0),D256-C256,"")</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="22" t="str">
+      <c r="E257" s="23" t="str">
         <f aca="false">IF(AND(C257&lt;&gt;0,D257&lt;&gt;0),D257-C257,"")</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="22" t="str">
+      <c r="E258" s="23" t="str">
         <f aca="false">IF(AND(C258&lt;&gt;0,D258&lt;&gt;0),D258-C258,"")</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="22" t="str">
+      <c r="E259" s="23" t="str">
         <f aca="false">IF(AND(C259&lt;&gt;0,D259&lt;&gt;0),D259-C259,"")</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="22" t="str">
+      <c r="E260" s="23" t="str">
         <f aca="false">IF(AND(C260&lt;&gt;0,D260&lt;&gt;0),D260-C260,"")</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="22" t="str">
+      <c r="E261" s="23" t="str">
         <f aca="false">IF(AND(C261&lt;&gt;0,D261&lt;&gt;0),D261-C261,"")</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="22" t="str">
+      <c r="E262" s="23" t="str">
         <f aca="false">IF(AND(C262&lt;&gt;0,D262&lt;&gt;0),D262-C262,"")</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="22" t="str">
+      <c r="E263" s="23" t="str">
         <f aca="false">IF(AND(C263&lt;&gt;0,D263&lt;&gt;0),D263-C263,"")</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="22" t="str">
+      <c r="E264" s="23" t="str">
         <f aca="false">IF(AND(C264&lt;&gt;0,D264&lt;&gt;0),D264-C264,"")</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="22" t="str">
+      <c r="E265" s="23" t="str">
         <f aca="false">IF(AND(C265&lt;&gt;0,D265&lt;&gt;0),D265-C265,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="22" t="str">
+      <c r="E266" s="23" t="str">
         <f aca="false">IF(AND(C266&lt;&gt;0,D266&lt;&gt;0),D266-C266,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="22" t="str">
+      <c r="E267" s="23" t="str">
         <f aca="false">IF(AND(C267&lt;&gt;0,D267&lt;&gt;0),D267-C267,"")</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="22" t="str">
+      <c r="E268" s="23" t="str">
         <f aca="false">IF(AND(C268&lt;&gt;0,D268&lt;&gt;0),D268-C268,"")</f>
         <v/>
       </c>
@@ -5499,6 +5538,7 @@
     <hyperlink ref="O51" r:id="rId49" display="K. Ma, K. Chen, N. Zhu, L. Liu and S. He, &quot;High-Resolution Compact On-Chip Spectrometer Based on an Echelle Grating With Densely Packed Waveguide Array,&quot; in IEEE Photonics Journal, vol. 11, no. 1, pp. 1-7, Feb. 2019, Art no. 4900107, doi: 10.1109/JPHOT.20"/>
     <hyperlink ref="O52" r:id="rId50" display="Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886"/>
     <hyperlink ref="O53" r:id="rId51" display="Li A, Wu YF, Wang C et al. An inversely designed integrated spectrometer with reconfigurable performance and ultra-low power consumption. Opto-Electron Adv 7, 240099 (2024). doi: 10.29026/oea.2024.240099"/>
+    <hyperlink ref="O54" r:id="rId52" display="Tian, M., Liu, B., Lu, Z. et al. Miniaturized on-chip spectrometer enabled by electrochromic modulation. Light Sci Appl 13, 278 (2024). https://doi.org/10.1038/s41377-024-01638-4"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5541,2398 +5581,2398 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="K2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>120</v>
+      <c r="P2" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="27" t="n">
+      <c r="A3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="28" t="n">
         <v>720</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="28" t="n">
         <v>900</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27" t="n">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28" t="n">
         <v>1991</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>122</v>
+      <c r="P3" s="30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="31" t="n">
+      <c r="A4" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="32" t="n">
         <v>400</v>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="32" t="n">
         <v>1100</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="n">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="31" t="n">
+      <c r="G4" s="32" t="n">
         <v>100000000000000</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31" t="n">
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="32" t="n">
         <v>168</v>
       </c>
-      <c r="L4" s="31" t="n">
+      <c r="L4" s="32" t="n">
         <v>555</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31" t="n">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="n">
         <v>2021</v>
       </c>
-      <c r="P4" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="n">
+      <c r="P4" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="n">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="n">
         <v>750</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32" t="n">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="31" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="31" t="n">
+      <c r="O5" s="32" t="n">
         <v>2014</v>
       </c>
-      <c r="P5" s="33" t="s">
-        <v>127</v>
+      <c r="P5" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="n">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32" t="n">
         <v>365</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="n">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="n">
         <v>1310</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32" t="n">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="31"/>
-      <c r="M6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="31" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="M6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="31" t="n">
+      <c r="O6" s="32" t="n">
         <v>2019</v>
       </c>
-      <c r="P6" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" s="34" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="P6" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31" t="n">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32" t="n">
         <v>5000</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="n">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="n">
         <v>9000</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="31" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="31" t="n">
+      <c r="O7" s="32" t="n">
         <v>2020</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>132</v>
+      <c r="P7" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31" t="n">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="n">
         <v>500</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="32" t="n">
+        <v>2011</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C9" s="32" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D9" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="33" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32" t="n">
+        <v>2009</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="32" t="n">
+        <v>350</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D10" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="33" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K10" s="32" t="n">
+        <v>140</v>
+      </c>
+      <c r="L10" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32" t="n">
+        <v>2013</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="D11" s="32" t="n">
+        <v>370</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="33" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="33" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K11" s="32" t="n">
+        <v>180</v>
+      </c>
+      <c r="L11" s="32" t="n">
+        <v>95</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32" t="n">
+        <v>2013</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D12" s="32" t="n">
+        <v>532</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="33" t="n">
+        <v>70</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="32" t="n">
+        <v>180</v>
+      </c>
+      <c r="L12" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="n">
+        <v>2014</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>720</v>
+      </c>
+      <c r="D13" s="32" t="n">
+        <v>570</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="33" t="n">
+        <v>76</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="33" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K13" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="32" t="n">
+        <v>610</v>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D14" s="32" t="n">
+        <v>670</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="n">
+        <v>85</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="33" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="32" t="n">
+        <v>160</v>
+      </c>
+      <c r="L14" s="32" t="n">
+        <v>95</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C15" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="33" t="n">
+        <v>28</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="32" t="n">
+        <v>148</v>
+      </c>
+      <c r="L15" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="32" t="n">
+        <v>600</v>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>870</v>
+      </c>
+      <c r="D16" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="33" t="n">
+        <v>23</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K16" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="32" t="n">
+        <v>900</v>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D17" s="32" t="n">
+        <v>950</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D18" s="32" t="n">
+        <v>528</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="33" t="n">
+        <v>27</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K18" s="32" t="n">
+        <v>148</v>
+      </c>
+      <c r="L18" s="32" t="n">
+        <v>91</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="D19" s="32" t="n">
+        <v>660</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="33" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="33" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K19" s="32" t="n">
+        <v>220</v>
+      </c>
+      <c r="L19" s="32" t="n">
+        <v>900</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="32" t="n">
+        <v>640</v>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="D20" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="33" t="n">
+        <v>53500</v>
+      </c>
+      <c r="I20" s="33" t="n">
+        <v>278</v>
+      </c>
+      <c r="J20" s="33" t="n">
+        <v>-60</v>
+      </c>
+      <c r="K20" s="32" t="n">
+        <v>160</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="C21" s="32" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D21" s="32" t="n">
+        <v>775</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="33" t="n">
+        <v>40</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32" t="n">
+        <v>130</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="C22" s="32" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D22" s="32" t="n">
+        <v>960</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32" t="n">
+        <v>130</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="32" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D23" s="32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="n">
+        <v>35</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="32" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32" t="n">
+        <v>38</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="32" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D25" s="32" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="n">
+        <v>47</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="32" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D26" s="32" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32" t="n">
+        <v>41</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="32" t="n">
+        <v>875</v>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D27" s="32" t="n">
+        <v>905</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32" t="n">
+        <v>43</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>810</v>
+      </c>
+      <c r="C28" s="32" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="C29" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="32" t="n">
+        <v>630</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="33" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K29" s="32" t="n">
+        <v>65</v>
+      </c>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C30" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="33" t="n">
+        <v>48</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="32" t="n">
+        <v>790</v>
+      </c>
+      <c r="C31" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D31" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" s="33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="33" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K31" s="32" t="n">
+        <v>170</v>
+      </c>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="32" t="n">
+        <v>350</v>
+      </c>
+      <c r="C32" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="D32" s="32" t="n">
+        <v>360</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="33" t="n">
+        <v>2170</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="33" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C33" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="D33" s="32" t="n">
+        <v>720</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="33" t="n">
+        <v>56</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="32" t="n">
+        <v>97</v>
+      </c>
+      <c r="L33" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="32" t="n">
+        <v>420</v>
+      </c>
+      <c r="C34" s="32" t="n">
+        <v>550</v>
+      </c>
+      <c r="D34" s="32" t="n">
+        <v>481</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32" t="n">
+        <v>76</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="32" t="n">
+        <v>400</v>
+      </c>
+      <c r="C35" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="D35" s="32" t="n">
+        <v>645</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32" t="n">
+        <v>84</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32" t="n">
+        <v>130</v>
+      </c>
+      <c r="L35" s="32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="32" t="n">
+        <v>810</v>
+      </c>
+      <c r="C36" s="32" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D36" s="32" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="32" t="n">
+        <v>810</v>
+      </c>
+      <c r="C37" s="32" t="n">
+        <v>1665</v>
+      </c>
+      <c r="D37" s="32" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C38" s="32" t="n">
+        <v>800</v>
+      </c>
+      <c r="D38" s="32" t="n">
+        <v>730</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K38" s="32" t="n">
+        <v>173</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P38" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="32" t="n">
+        <v>645</v>
+      </c>
+      <c r="C39" s="32" t="n">
+        <v>745</v>
+      </c>
+      <c r="D39" s="32" t="n">
+        <v>745</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32" t="n">
+        <v>103</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="32" t="n">
+        <v>860</v>
+      </c>
+      <c r="C40" s="32" t="n">
+        <v>960</v>
+      </c>
+      <c r="D40" s="32" t="n">
+        <v>860</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="33" t="n">
+        <v>61</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="32" t="n">
+        <v>860</v>
+      </c>
+      <c r="C41" s="32" t="n">
+        <v>960</v>
+      </c>
+      <c r="D41" s="32" t="n">
+        <v>920</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="32" t="n">
+        <v>860</v>
+      </c>
+      <c r="C42" s="32" t="n">
+        <v>960</v>
+      </c>
+      <c r="D42" s="32" t="n">
+        <v>955</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" s="32" t="n">
+        <v>750</v>
+      </c>
+      <c r="C43" s="32" t="n">
+        <v>950</v>
+      </c>
+      <c r="D43" s="32" t="n">
+        <v>700</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32" t="n">
+        <v>120</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" s="33" t="n">
+        <v>53</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32" t="n">
+        <v>80</v>
+      </c>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="32" t="n">
+        <v>790</v>
+      </c>
+      <c r="C44" s="32" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D44" s="32" t="n">
+        <v>877</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32" t="n">
+        <v>37</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="32" t="n">
+        <v>120</v>
+      </c>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P44" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="32" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C45" s="32" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D45" s="32" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32" t="n">
+        <v>58</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31" t="s">
+      <c r="I45" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="32" t="n">
+        <v>139</v>
+      </c>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C46" s="32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="32" t="n">
+        <v>870</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K46" s="32" t="n">
+        <v>123</v>
+      </c>
+      <c r="L46" s="32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P46" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" s="32" t="n">
+        <v>830</v>
+      </c>
+      <c r="C47" s="32" t="n">
+        <v>880</v>
+      </c>
+      <c r="D47" s="32" t="n">
+        <v>850</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="n">
+        <v>27</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H47" s="33" t="n">
+        <v>15300</v>
+      </c>
+      <c r="I47" s="33" t="n">
+        <v>105</v>
+      </c>
+      <c r="J47" s="33" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K47" s="32" t="n">
+        <v>145</v>
+      </c>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P47" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="C48" s="32" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D48" s="32" t="n">
+        <v>710</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="32" t="n">
+        <v>146</v>
+      </c>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P48" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="C49" s="32" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D49" s="32" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="n">
+        <v>45</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P49" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="C50" s="32" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D50" s="32" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="n">
+        <v>35</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J50" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P50" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="32" t="n">
+        <v>650</v>
+      </c>
+      <c r="C51" s="32" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D51" s="32" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P51" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="32" t="n">
+        <v>826</v>
+      </c>
+      <c r="C52" s="32" t="n">
+        <v>879</v>
+      </c>
+      <c r="D52" s="32" t="n">
+        <v>826</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="O8" s="31" t="n">
-        <v>2011</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C9" s="31" t="n">
-        <v>1450</v>
-      </c>
-      <c r="D9" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="32" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="31" t="n">
-        <v>350</v>
-      </c>
-      <c r="C10" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D10" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="32" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K10" s="31" t="n">
-        <v>140</v>
-      </c>
-      <c r="L10" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="n">
-        <v>2013</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C11" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="D11" s="31" t="n">
-        <v>370</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="32" t="n">
-        <v>40</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="32" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K11" s="31" t="n">
-        <v>180</v>
-      </c>
-      <c r="L11" s="31" t="n">
-        <v>95</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="n">
-        <v>2013</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C12" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D12" s="31" t="n">
-        <v>532</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="32" t="n">
-        <v>70</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="31" t="n">
-        <v>180</v>
-      </c>
-      <c r="L12" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31" t="n">
-        <v>2014</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="C13" s="31" t="n">
-        <v>720</v>
-      </c>
-      <c r="D13" s="31" t="n">
-        <v>570</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="32" t="n">
-        <v>76</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="K13" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="31" t="n">
-        <v>610</v>
-      </c>
-      <c r="C14" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D14" s="31" t="n">
-        <v>670</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" t="n">
-        <v>85</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="32" t="n">
-        <v>35</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="31" t="n">
-        <v>160</v>
-      </c>
-      <c r="L14" s="31" t="n">
-        <v>95</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C15" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="32" t="n">
-        <v>28</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="31" t="n">
-        <v>148</v>
-      </c>
-      <c r="L15" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="31" t="n">
-        <v>600</v>
-      </c>
-      <c r="C16" s="31" t="n">
-        <v>870</v>
-      </c>
-      <c r="D16" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="32" t="n">
-        <v>23</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K16" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P16" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="31" t="n">
-        <v>900</v>
-      </c>
-      <c r="C17" s="31" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D17" s="31" t="n">
-        <v>950</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="n">
-        <v>80</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31" t="n">
-        <v>2015</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C18" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D18" s="31" t="n">
-        <v>528</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="32" t="n">
-        <v>27</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K18" s="31" t="n">
-        <v>148</v>
-      </c>
-      <c r="L18" s="31" t="n">
-        <v>91</v>
-      </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="C19" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="D19" s="31" t="n">
-        <v>660</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="32" t="n">
-        <v>200</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="32" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K19" s="31" t="n">
-        <v>220</v>
-      </c>
-      <c r="L19" s="31" t="n">
-        <v>900</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="31" t="n">
-        <v>640</v>
-      </c>
-      <c r="C20" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="D20" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="n">
-        <v>28</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" s="32" t="n">
-        <v>53500</v>
-      </c>
-      <c r="I20" s="32" t="n">
-        <v>278</v>
-      </c>
-      <c r="J20" s="32" t="n">
-        <v>-60</v>
-      </c>
-      <c r="K20" s="31" t="n">
-        <v>160</v>
-      </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="C21" s="31" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D21" s="31" t="n">
-        <v>775</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="32" t="n">
-        <v>40</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="31" t="n">
-        <v>130</v>
-      </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="C22" s="31" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D22" s="31" t="n">
-        <v>960</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="32" t="n">
-        <v>24</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J22" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="31" t="n">
-        <v>130</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="31" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D23" s="31" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" t="n">
-        <v>35</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="31" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1440</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" t="n">
-        <v>38</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="31" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D25" s="31" t="n">
-        <v>1580</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31" t="n">
-        <v>47</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="31" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D26" s="31" t="n">
-        <v>1680</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31" t="n">
-        <v>41</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="31" t="n">
-        <v>875</v>
-      </c>
-      <c r="C27" s="31" t="n">
-        <v>1085</v>
-      </c>
-      <c r="D27" s="31" t="n">
-        <v>905</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31" t="n">
-        <v>43</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="32" t="n">
-        <v>22</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="31" t="n">
-        <v>810</v>
-      </c>
-      <c r="C28" s="31" t="n">
-        <v>1550</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="C29" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D29" s="31" t="n">
-        <v>630</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" s="32" t="n">
-        <v>-40</v>
-      </c>
-      <c r="K29" s="31" t="n">
-        <v>65</v>
-      </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P29" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C30" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D30" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="32" t="n">
-        <v>48</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="J30" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P30" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="31" t="n">
-        <v>790</v>
-      </c>
-      <c r="C31" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D31" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" s="32" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" s="32" t="n">
-        <v>-50</v>
-      </c>
-      <c r="K31" s="31" t="n">
-        <v>170</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="31" t="n">
-        <v>350</v>
-      </c>
-      <c r="C32" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="D32" s="31" t="n">
-        <v>360</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="32" t="n">
-        <v>2170</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" s="32" t="n">
-        <v>-15</v>
-      </c>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="n">
-        <v>2018</v>
-      </c>
-      <c r="P32" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C33" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="D33" s="31" t="n">
-        <v>720</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="32" t="n">
-        <v>56</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="31" t="n">
-        <v>97</v>
-      </c>
-      <c r="L33" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P33" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="31" t="n">
-        <v>420</v>
-      </c>
-      <c r="C34" s="31" t="n">
-        <v>550</v>
-      </c>
-      <c r="D34" s="31" t="n">
-        <v>481</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="n">
-        <v>76</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="32" t="n">
-        <v>18</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="J34" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="31" t="n">
-        <v>400</v>
-      </c>
-      <c r="C35" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="D35" s="31" t="n">
-        <v>645</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31" t="n">
-        <v>84</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="32" t="n">
-        <v>50</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="J35" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="31" t="n">
-        <v>130</v>
-      </c>
-      <c r="L35" s="31" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="31" t="n">
-        <v>810</v>
-      </c>
-      <c r="C36" s="31" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D36" s="31" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="J36" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P36" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" s="31" t="n">
-        <v>810</v>
-      </c>
-      <c r="C37" s="31" t="n">
-        <v>1665</v>
-      </c>
-      <c r="D37" s="31" t="n">
-        <v>1665</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="J37" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31" t="n">
-        <v>2019</v>
-      </c>
-      <c r="P37" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C38" s="31" t="n">
-        <v>800</v>
-      </c>
-      <c r="D38" s="31" t="n">
-        <v>730</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K38" s="31" t="n">
-        <v>173</v>
-      </c>
-      <c r="L38" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P38" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="31" t="n">
-        <v>645</v>
-      </c>
-      <c r="C39" s="31" t="n">
-        <v>745</v>
-      </c>
-      <c r="D39" s="31" t="n">
-        <v>745</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="31" t="n">
-        <v>103</v>
-      </c>
-      <c r="L39" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P39" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="31" t="n">
-        <v>860</v>
-      </c>
-      <c r="C40" s="31" t="n">
-        <v>960</v>
-      </c>
-      <c r="D40" s="31" t="n">
-        <v>860</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="H40" s="32" t="n">
-        <v>61</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P40" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="31" t="n">
-        <v>860</v>
-      </c>
-      <c r="C41" s="31" t="n">
-        <v>960</v>
-      </c>
-      <c r="D41" s="31" t="n">
-        <v>920</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31" t="n">
-        <v>40</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P41" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="31" t="n">
-        <v>860</v>
-      </c>
-      <c r="C42" s="31" t="n">
-        <v>960</v>
-      </c>
-      <c r="D42" s="31" t="n">
-        <v>955</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31" t="n">
-        <v>50</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P42" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B43" s="31" t="n">
-        <v>750</v>
-      </c>
-      <c r="C43" s="31" t="n">
-        <v>950</v>
-      </c>
-      <c r="D43" s="31" t="n">
-        <v>700</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31" t="n">
-        <v>120</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="H43" s="32" t="n">
-        <v>53</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31" t="n">
-        <v>80</v>
-      </c>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P43" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="31" t="n">
-        <v>790</v>
-      </c>
-      <c r="C44" s="31" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D44" s="31" t="n">
-        <v>877</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31" t="n">
-        <v>37</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="J44" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="31" t="n">
-        <v>120</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P44" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" s="31" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C45" s="31" t="n">
-        <v>1435</v>
-      </c>
-      <c r="D45" s="31" t="n">
-        <v>1115</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31" t="n">
-        <v>58</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="J45" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="31" t="n">
-        <v>139</v>
-      </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31" t="n">
-        <v>2020</v>
-      </c>
-      <c r="P45" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" s="31" t="n">
-        <v>300</v>
-      </c>
-      <c r="C46" s="31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D46" s="31" t="n">
-        <v>870</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H46" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="K46" s="31" t="n">
-        <v>123</v>
-      </c>
-      <c r="L46" s="31" t="n">
-        <v>100</v>
-      </c>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31" t="n">
+      <c r="G52" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="33" t="n">
+        <v>75</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J52" s="33" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32" t="n">
         <v>2021</v>
       </c>
-      <c r="P46" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B47" s="31" t="n">
-        <v>830</v>
-      </c>
-      <c r="C47" s="31" t="n">
-        <v>880</v>
-      </c>
-      <c r="D47" s="31" t="n">
-        <v>850</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31" t="n">
-        <v>27</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="H47" s="32" t="n">
-        <v>15300</v>
-      </c>
-      <c r="I47" s="32" t="n">
-        <v>105</v>
-      </c>
-      <c r="J47" s="32" t="n">
-        <v>-13</v>
-      </c>
-      <c r="K47" s="31" t="n">
-        <v>145</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P47" s="33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="C48" s="31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D48" s="31" t="n">
-        <v>710</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31" t="n">
-        <v>60</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="H48" s="32" t="n">
-        <v>18</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="J48" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="31" t="n">
-        <v>146</v>
-      </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P48" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="C49" s="31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D49" s="31" t="n">
-        <v>1130</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="n">
-        <v>45</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P49" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B50" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="C50" s="31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D50" s="31" t="n">
-        <v>1360</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31" t="n">
-        <v>35</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J50" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P50" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="31" t="n">
-        <v>650</v>
-      </c>
-      <c r="C51" s="31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="D51" s="31" t="n">
-        <v>1510</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="J51" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P51" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="31" t="n">
-        <v>826</v>
-      </c>
-      <c r="C52" s="31" t="n">
-        <v>879</v>
-      </c>
-      <c r="D52" s="31" t="n">
-        <v>826</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31" t="n">
-        <v>17</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="H52" s="32" t="n">
-        <v>75</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="J52" s="32" t="n">
-        <v>-10</v>
-      </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31" t="n">
-        <v>2021</v>
-      </c>
-      <c r="P52" s="33" t="s">
-        <v>272</v>
+      <c r="P52" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8011,9 +8051,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -8025,387 +8065,392 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>275</v>
+      <c r="A1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38" t="s">
-        <v>276</v>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40" t="s">
-        <v>277</v>
+      <c r="A9" s="39"/>
+      <c r="B9" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38" t="s">
-        <v>125</v>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38" t="s">
-        <v>278</v>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38" t="s">
-        <v>279</v>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
-        <v>140</v>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38" t="s">
-        <v>144</v>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38" t="s">
-        <v>148</v>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38" t="s">
-        <v>148</v>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38" t="s">
-        <v>148</v>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38" t="s">
-        <v>157</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38" t="s">
-        <v>160</v>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
-        <v>163</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38" t="s">
-        <v>167</v>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38" t="s">
-        <v>171</v>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
-        <v>174</v>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38" t="s">
-        <v>135</v>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38" t="s">
-        <v>135</v>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38" t="s">
-        <v>180</v>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38" t="s">
-        <v>180</v>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38" t="s">
-        <v>180</v>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38" t="s">
-        <v>180</v>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38" t="s">
-        <v>190</v>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38" t="s">
-        <v>252</v>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38" t="s">
-        <v>254</v>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38" t="s">
-        <v>259</v>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38" t="s">
-        <v>262</v>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38" t="s">
-        <v>262</v>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38" t="s">
-        <v>262</v>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38" t="s">
-        <v>262</v>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38" t="s">
-        <v>190</v>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38" t="s">
-        <v>121</v>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38"/>
-      <c r="B61" s="41" t="s">
-        <v>123</v>
+      <c r="A61" s="39"/>
+      <c r="B61" s="42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tian, M., Liu, B., Lu, Z. et al. Miniaturized on-chip spectrometer enabled by electrochromic modulation. Light Sci Appl 13, 278 (2024). https://doi.org/10.1038/s41377-024-01638-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 x (80e-6 × 150e-6+200e-6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yao, C., Zhang, W., Bao, P. et al. Chip-scale sensor for spectroscopic metrology. Nat Commun 15, 10305 (2024). https://doi.org/10.1038/s41467-024-54708-x</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -999,12 +1005,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1072,12 +1079,6 @@
       <name val="Times new roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1332,55 +1333,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1388,31 +1389,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1496,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O28" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O54" activeCellId="0" sqref="O54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O57" activeCellId="0" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1509,7 +1510,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.92"/>
@@ -3577,23 +3578,42 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="14" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <f aca="false">D55-C55</f>
+        <v>520</v>
+      </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15" t="str">
+      <c r="G55" s="14" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H55" s="15" t="n">
         <f aca="false">IF(AND(E55&lt;&gt;0,G55&lt;&gt;0),E55/G55,"")</f>
-        <v/>
+        <v>65000</v>
       </c>
       <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="J55" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="19"/>
+      <c r="M55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14"/>
@@ -5539,6 +5559,7 @@
     <hyperlink ref="O52" r:id="rId50" display="Zhang, Z.; Huang, B.; Zhang, Z.; Chen, H. On-Chip Reconstructive Spectrometer Based on Parallel Cascaded Micro-Ring Resonators. Appl. Sci. 2024, 14, 4886. https://doi.org/10.3390/app14114886"/>
     <hyperlink ref="O53" r:id="rId51" display="Li A, Wu YF, Wang C et al. An inversely designed integrated spectrometer with reconfigurable performance and ultra-low power consumption. Opto-Electron Adv 7, 240099 (2024). doi: 10.29026/oea.2024.240099"/>
     <hyperlink ref="O54" r:id="rId52" display="Tian, M., Liu, B., Lu, Z. et al. Miniaturized on-chip spectrometer enabled by electrochromic modulation. Light Sci Appl 13, 278 (2024). https://doi.org/10.1038/s41377-024-01638-4"/>
+    <hyperlink ref="O55" r:id="rId53" location="ref-CR53" display="Yao, C., Zhang, W., Bao, P. et al. Chip-scale sensor for spectroscopic metrology. Nat Commun 15, 10305 (2024). https://doi.org/10.1038/s41467-024-54708-x"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5561,7 +5582,7 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
@@ -5589,13 +5610,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>6</v>
@@ -5604,28 +5625,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>13</v>
@@ -5634,12 +5655,12 @@
         <v>14</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="28" t="n">
         <v>720</v>
@@ -5662,12 +5683,12 @@
         <v>1991</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>400</v>
@@ -5698,12 +5719,12 @@
         <v>2021</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32" t="n">
@@ -5722,7 +5743,7 @@
       <c r="J5" s="33"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>17</v>
@@ -5731,7 +5752,7 @@
         <v>2014</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -5756,7 +5777,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="32"/>
       <c r="M6" s="32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>17</v>
@@ -5765,7 +5786,7 @@
         <v>2019</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,13 +5804,13 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="L7" s="32"/>
       <c r="M7" s="32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N7" s="32" t="s">
         <v>17</v>
@@ -5798,7 +5819,7 @@
         <v>2020</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -5817,7 +5838,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -5833,12 +5854,12 @@
         <v>2011</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="32" t="n">
         <v>300</v>
@@ -5852,16 +5873,16 @@
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H9" s="33" t="n">
         <v>25</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K9" s="32" t="n">
         <v>100</v>
@@ -5873,12 +5894,12 @@
         <v>2009</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" s="32" t="n">
         <v>350</v>
@@ -5892,13 +5913,13 @@
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="33" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J10" s="33" t="n">
         <v>-2</v>
@@ -5915,12 +5936,12 @@
         <v>2013</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" s="32" t="n">
         <v>300</v>
@@ -5934,13 +5955,13 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H11" s="33" t="n">
         <v>40</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J11" s="33" t="n">
         <v>-6</v>
@@ -5957,12 +5978,12 @@
         <v>2013</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" s="32" t="n">
         <v>300</v>
@@ -5976,13 +5997,13 @@
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>70</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>-1</v>
@@ -5999,12 +6020,12 @@
         <v>2014</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B13" s="32" t="n">
         <v>400</v>
@@ -6018,13 +6039,13 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H13" s="33" t="n">
         <v>76</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J13" s="33" t="n">
         <v>-5</v>
@@ -6041,12 +6062,12 @@
         <v>2015</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B14" s="32" t="n">
         <v>610</v>
@@ -6062,13 +6083,13 @@
         <v>85</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H14" s="33" t="n">
         <v>35</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J14" s="33" t="n">
         <v>-1</v>
@@ -6085,12 +6106,12 @@
         <v>2015</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" s="32" t="n">
         <v>300</v>
@@ -6104,16 +6125,16 @@
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H15" s="33" t="n">
         <v>28</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K15" s="32" t="n">
         <v>148</v>
@@ -6127,12 +6148,12 @@
         <v>2015</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B16" s="32" t="n">
         <v>600</v>
@@ -6146,13 +6167,13 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="33" t="n">
         <v>23</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J16" s="33" t="n">
         <v>-2</v>
@@ -6167,12 +6188,12 @@
         <v>2015</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B17" s="32" t="n">
         <v>900</v>
@@ -6188,13 +6209,13 @@
         <v>80</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J17" s="33" t="n">
         <v>-1</v>
@@ -6207,12 +6228,12 @@
         <v>2015</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" s="32" t="n">
         <v>300</v>
@@ -6226,13 +6247,13 @@
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>27</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>-2</v>
@@ -6249,12 +6270,12 @@
         <v>2016</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" s="32" t="n">
         <v>650</v>
@@ -6270,13 +6291,13 @@
         <v>100</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H19" s="33" t="n">
         <v>200</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J19" s="33" t="n">
         <v>-6</v>
@@ -6293,12 +6314,12 @@
         <v>2016</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" s="32" t="n">
         <v>640</v>
@@ -6314,7 +6335,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H20" s="33" t="n">
         <v>53500</v>
@@ -6335,12 +6356,12 @@
         <v>2017</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="32" t="n">
         <v>700</v>
@@ -6356,13 +6377,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H21" s="33" t="n">
         <v>40</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J21" s="33" t="n">
         <v>0</v>
@@ -6377,12 +6398,12 @@
         <v>2017</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B22" s="32" t="n">
         <v>700</v>
@@ -6398,13 +6419,13 @@
         <v>17</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="33" t="n">
         <v>24</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J22" s="33" t="n">
         <v>0</v>
@@ -6419,12 +6440,12 @@
         <v>2017</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" s="32" t="n">
         <v>1000</v>
@@ -6440,13 +6461,13 @@
         <v>35</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J23" s="33" t="n">
         <v>0</v>
@@ -6459,12 +6480,12 @@
         <v>2017</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B24" s="32" t="n">
         <v>1000</v>
@@ -6480,13 +6501,13 @@
         <v>38</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J24" s="33" t="n">
         <v>0</v>
@@ -6499,12 +6520,12 @@
         <v>2017</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B25" s="32" t="n">
         <v>1000</v>
@@ -6520,13 +6541,13 @@
         <v>47</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J25" s="33" t="n">
         <v>0</v>
@@ -6539,12 +6560,12 @@
         <v>2017</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B26" s="32" t="n">
         <v>1000</v>
@@ -6560,13 +6581,13 @@
         <v>41</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J26" s="33" t="n">
         <v>0</v>
@@ -6579,12 +6600,12 @@
         <v>2017</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" s="32" t="n">
         <v>875</v>
@@ -6600,13 +6621,13 @@
         <v>43</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>22</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>0</v>
@@ -6621,12 +6642,12 @@
         <v>2017</v>
       </c>
       <c r="P27" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" s="32" t="n">
         <v>810</v>
@@ -6651,12 +6672,12 @@
         <v>2017</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" s="32" t="n">
         <v>400</v>
@@ -6670,13 +6691,13 @@
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J29" s="33" t="n">
         <v>-40</v>
@@ -6691,12 +6712,12 @@
         <v>2018</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" s="32" t="n">
         <v>300</v>
@@ -6710,13 +6731,13 @@
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="33" t="n">
         <v>48</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J30" s="33" t="n">
         <v>0</v>
@@ -6729,12 +6750,12 @@
         <v>2018</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" s="32" t="n">
         <v>790</v>
@@ -6750,13 +6771,13 @@
         <v>30</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H31" s="33" t="n">
         <v>2000</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J31" s="33" t="n">
         <v>-50</v>
@@ -6771,12 +6792,12 @@
         <v>2018</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B32" s="32" t="n">
         <v>350</v>
@@ -6792,20 +6813,20 @@
         <v>20</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" s="33" t="n">
         <v>2170</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J32" s="33" t="n">
         <v>-15</v>
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
@@ -6813,12 +6834,12 @@
         <v>2018</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B33" s="32" t="n">
         <v>300</v>
@@ -6832,16 +6853,16 @@
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H33" s="33" t="n">
         <v>56</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K33" s="32" t="n">
         <v>97</v>
@@ -6855,12 +6876,12 @@
         <v>2019</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B34" s="32" t="n">
         <v>420</v>
@@ -6876,13 +6897,13 @@
         <v>76</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H34" s="33" t="n">
         <v>18</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J34" s="33" t="n">
         <v>0</v>
@@ -6895,12 +6916,12 @@
         <v>2019</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B35" s="32" t="n">
         <v>400</v>
@@ -6916,13 +6937,13 @@
         <v>84</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H35" s="33" t="n">
         <v>50</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J35" s="33" t="n">
         <v>0</v>
@@ -6939,12 +6960,12 @@
         <v>2019</v>
       </c>
       <c r="P35" s="34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B36" s="32" t="n">
         <v>810</v>
@@ -6960,13 +6981,13 @@
         <v>50</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>0</v>
@@ -6979,12 +7000,12 @@
         <v>2019</v>
       </c>
       <c r="P36" s="38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B37" s="32" t="n">
         <v>810</v>
@@ -7000,13 +7021,13 @@
         <v>50</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J37" s="33" t="n">
         <v>0</v>
@@ -7019,12 +7040,12 @@
         <v>2019</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38" s="32" t="n">
         <v>300</v>
@@ -7038,13 +7059,13 @@
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J38" s="33" t="n">
         <v>-2</v>
@@ -7053,7 +7074,7 @@
         <v>173</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
@@ -7061,12 +7082,12 @@
         <v>2020</v>
       </c>
       <c r="P38" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B39" s="32" t="n">
         <v>645</v>
@@ -7082,13 +7103,13 @@
         <v>50</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J39" s="33" t="n">
         <v>0</v>
@@ -7097,7 +7118,7 @@
         <v>103</v>
       </c>
       <c r="L39" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
@@ -7105,12 +7126,12 @@
         <v>2020</v>
       </c>
       <c r="P39" s="34" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B40" s="32" t="n">
         <v>860</v>
@@ -7126,16 +7147,16 @@
         <v>50</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H40" s="33" t="n">
         <v>61</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
@@ -7145,12 +7166,12 @@
         <v>2020</v>
       </c>
       <c r="P40" s="34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B41" s="32" t="n">
         <v>860</v>
@@ -7166,12 +7187,12 @@
         <v>40</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
@@ -7181,12 +7202,12 @@
         <v>2020</v>
       </c>
       <c r="P41" s="34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B42" s="32" t="n">
         <v>860</v>
@@ -7202,12 +7223,12 @@
         <v>50</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
@@ -7217,12 +7238,12 @@
         <v>2020</v>
       </c>
       <c r="P42" s="34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B43" s="32" t="n">
         <v>750</v>
@@ -7238,13 +7259,13 @@
         <v>120</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H43" s="33" t="n">
         <v>53</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J43" s="33" t="n">
         <v>0</v>
@@ -7259,12 +7280,12 @@
         <v>2020</v>
       </c>
       <c r="P43" s="34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B44" s="32" t="n">
         <v>790</v>
@@ -7280,13 +7301,13 @@
         <v>37</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H44" s="33" t="n">
         <v>10</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J44" s="33" t="n">
         <v>0</v>
@@ -7301,12 +7322,12 @@
         <v>2020</v>
       </c>
       <c r="P44" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B45" s="32" t="n">
         <v>1020</v>
@@ -7322,13 +7343,13 @@
         <v>58</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J45" s="33" t="n">
         <v>0</v>
@@ -7343,12 +7364,12 @@
         <v>2020</v>
       </c>
       <c r="P45" s="34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B46" s="32" t="n">
         <v>300</v>
@@ -7362,16 +7383,16 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K46" s="32" t="n">
         <v>123</v>
@@ -7385,12 +7406,12 @@
         <v>2021</v>
       </c>
       <c r="P46" s="34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B47" s="32" t="n">
         <v>830</v>
@@ -7406,7 +7427,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H47" s="33" t="n">
         <v>15300</v>
@@ -7427,12 +7448,12 @@
         <v>2021</v>
       </c>
       <c r="P47" s="34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B48" s="32" t="n">
         <v>650</v>
@@ -7448,13 +7469,13 @@
         <v>60</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H48" s="33" t="n">
         <v>18</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J48" s="33" t="n">
         <v>0</v>
@@ -7469,12 +7490,12 @@
         <v>2021</v>
       </c>
       <c r="P48" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B49" s="32" t="n">
         <v>650</v>
@@ -7490,13 +7511,13 @@
         <v>45</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H49" s="33" t="n">
         <v>6</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J49" s="33" t="n">
         <v>0</v>
@@ -7509,12 +7530,12 @@
         <v>2021</v>
       </c>
       <c r="P49" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B50" s="32" t="n">
         <v>650</v>
@@ -7530,13 +7551,13 @@
         <v>35</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J50" s="33" t="n">
         <v>0</v>
@@ -7549,12 +7570,12 @@
         <v>2021</v>
       </c>
       <c r="P50" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B51" s="32" t="n">
         <v>650</v>
@@ -7570,13 +7591,13 @@
         <v>20</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J51" s="33" t="n">
         <v>0</v>
@@ -7589,12 +7610,12 @@
         <v>2021</v>
       </c>
       <c r="P51" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B52" s="32" t="n">
         <v>826</v>
@@ -7610,20 +7631,20 @@
         <v>17</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H52" s="33" t="n">
         <v>75</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J52" s="33" t="n">
         <v>-10</v>
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
@@ -7631,7 +7652,7 @@
         <v>2021</v>
       </c>
       <c r="P52" s="34" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8057,7 +8078,7 @@
       <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.14"/>
@@ -8066,13 +8087,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,13 +8143,13 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="39"/>
       <c r="B8" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="39"/>
       <c r="B9" s="41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8146,7 +8167,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39"/>
       <c r="B12" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8158,7 +8179,7 @@
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,277 +8191,277 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39"/>
       <c r="B19" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39"/>
       <c r="B20" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39"/>
       <c r="B22" s="39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="39"/>
       <c r="B24" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="39"/>
       <c r="B25" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="39"/>
       <c r="B27" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="39"/>
       <c r="B28" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="39"/>
       <c r="B32" s="39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="39"/>
       <c r="B34" s="39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="39"/>
       <c r="B37" s="39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="39"/>
       <c r="B38" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="39"/>
       <c r="B42" s="39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="39"/>
       <c r="B43" s="39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="39"/>
       <c r="B46" s="39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="39"/>
       <c r="B47" s="39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="39"/>
       <c r="B50" s="39" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="39"/>
       <c r="B51" s="39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="39"/>
       <c r="B52" s="39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="39"/>
       <c r="B53" s="39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="39"/>
       <c r="B55" s="39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="39"/>
       <c r="B56" s="39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="39"/>
       <c r="B57" s="39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="39"/>
       <c r="B58" s="39" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="39"/>
       <c r="B61" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/iPHAOS.xlsx
+++ b/iPHAOS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="285">
   <si>
     <t xml:space="preserve">Spectral range</t>
   </si>
@@ -1005,11 +1005,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1337,7 +1336,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1497,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O13" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O57" activeCellId="0" sqref="O57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3577,7 +3576,9 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
+      <c r="A55" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
